--- a/output/combsum.xlsx
+++ b/output/combsum.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\lidar\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DD141A0B-1DCB-4D5F-9A9A-B81622A75D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17B3E9-FC44-4A0A-8E8E-0C85E3900161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combsum" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">combsum!$A$1:$V$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">combsum!$A$1:$X$21</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
   <si>
     <t>site</t>
   </si>
@@ -335,9 +345,6 @@
     <t>Joshua Tree Desert, California</t>
   </si>
   <si>
-    <t>Median Canopy Height</t>
-  </si>
-  <si>
     <t>Subalpine Forest, Colorado</t>
   </si>
   <si>
@@ -396,14 +403,23 @@
   </si>
   <si>
     <t>Crown Cover      5-15 m</t>
+  </si>
+  <si>
+    <t>25th Percentile Crown Height</t>
+  </si>
+  <si>
+    <t>75th Percentile Crown Height</t>
+  </si>
+  <si>
+    <t>Median Tree Canopy Height</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -728,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1075,6 +1091,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1120,17 +1248,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1140,15 +1268,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1503,4342 +1643,4507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BE22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1:V21"/>
+      <selection pane="bottomRight" sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.44140625" customWidth="1"/>
-    <col min="8" max="8" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="8.44140625" customWidth="1"/>
+    <col min="2" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="6" width="9" customWidth="1"/>
+    <col min="7" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="8.44140625" customWidth="1"/>
+    <col min="18" max="18" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="2" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" s="2" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="T1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="2">
         <v>2</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AB1" s="2">
         <v>3</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AC1" s="2">
         <v>4</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AD1" s="2">
         <v>5</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AE1" s="2">
         <v>6</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AF1" s="2">
         <v>7</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AG1" s="2">
         <v>8</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AH1" s="2">
         <v>9</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AI1" s="2">
         <v>10</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AJ1" s="2">
         <v>11</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AK1" s="2">
         <v>12</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AL1" s="2">
         <v>13</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AM1" s="2">
         <v>14</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AN1" s="2">
         <v>15</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AO1" s="2">
         <v>16</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AP1" s="2">
         <v>17</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AQ1" s="2">
         <v>18</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AR1" s="2">
         <v>19</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AS1" s="2">
         <v>20</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AT1" s="2">
         <v>21</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AU1" s="2">
         <v>22</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AV1" s="2">
         <v>23</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AW1" s="2">
         <v>24</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AX1" s="2">
         <v>25</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AY1" s="2">
         <v>26</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AZ1" s="2">
         <v>27</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="BA1" s="2">
         <v>28</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="BB1" s="2">
         <v>29</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BC1" s="2">
         <v>30</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BD1" s="2">
         <v>31</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BE1" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="11">
-        <f>Y2</f>
+      <c r="B2" s="23">
+        <f>AA2</f>
         <v>26.99</v>
       </c>
-      <c r="C2" s="3">
-        <f>Z2</f>
+      <c r="C2" s="23">
+        <f>AB2</f>
         <v>70.11</v>
       </c>
-      <c r="D2" s="3">
-        <f>AC2</f>
+      <c r="D2" s="11">
+        <f>AD2</f>
+        <v>82.53</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="D2:E2" si="0">AE2</f>
         <v>88.04</v>
       </c>
-      <c r="E2" s="3">
-        <f>AU2</f>
+      <c r="F2" s="4">
+        <f>AF2</f>
+        <v>93.57</v>
+      </c>
+      <c r="G2" s="19">
+        <f>AW2</f>
         <v>85.92</v>
       </c>
-      <c r="F2" s="3">
-        <f>AW2</f>
+      <c r="H2" s="3">
+        <f>AY2</f>
         <v>96.29</v>
       </c>
-      <c r="G2" s="4">
-        <f>BC2</f>
+      <c r="I2" s="4">
+        <f>BE2</f>
         <v>105.22</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="3">
-        <f>AG2</f>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:Q2" si="1">AI2</f>
         <v>0.78</v>
       </c>
-      <c r="J2" s="3">
-        <f>AH2</f>
+      <c r="L2" s="3">
+        <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
-      <c r="K2" s="3">
-        <f>AI2</f>
+      <c r="M2" s="3">
+        <f t="shared" si="1"/>
         <v>3.37</v>
       </c>
-      <c r="L2" s="3">
-        <f>AJ2</f>
+      <c r="N2" s="3">
+        <f t="shared" si="1"/>
         <v>10.61</v>
       </c>
-      <c r="M2" s="3">
-        <f>AK2</f>
+      <c r="O2" s="3">
+        <f t="shared" si="1"/>
         <v>11.59</v>
       </c>
-      <c r="N2" s="3">
-        <f>AL2</f>
+      <c r="P2" s="3">
+        <f t="shared" si="1"/>
         <v>17.579999999999998</v>
       </c>
-      <c r="O2" s="4">
-        <f>AM2</f>
+      <c r="Q2" s="4">
+        <f t="shared" si="1"/>
         <v>55.53</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="11">
-        <f>AS2</f>
+      <c r="S2" s="11">
+        <f t="shared" ref="S2:S21" si="2">AU2</f>
         <v>98.683999999999997</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="3">
-        <f>AO2</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T2" s="3">
-        <f>AP2</f>
-        <v>1.52</v>
-      </c>
+      <c r="T2" s="11"/>
       <c r="U2" s="3">
         <f>AQ2</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <f>AR2</f>
+        <v>1.52</v>
+      </c>
+      <c r="W2" s="3">
+        <f>AS2</f>
         <v>1.28</v>
       </c>
-      <c r="V2" s="4">
-        <f>AR2</f>
+      <c r="X2" s="4">
+        <f>AT2</f>
         <v>95.74</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>26.99</v>
       </c>
-      <c r="Z2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>70.11</v>
       </c>
-      <c r="AA2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>65.98</v>
       </c>
-      <c r="AB2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>82.53</v>
       </c>
-      <c r="AC2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>88.04</v>
       </c>
-      <c r="AD2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>93.57</v>
       </c>
-      <c r="AE2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>98.95</v>
       </c>
-      <c r="AF2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>105.22</v>
       </c>
-      <c r="AG2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>0.78</v>
       </c>
-      <c r="AH2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>0.54</v>
       </c>
-      <c r="AI2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>3.37</v>
       </c>
-      <c r="AJ2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>10.61</v>
       </c>
-      <c r="AK2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>11.59</v>
       </c>
-      <c r="AL2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+      <c r="AN2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>17.579999999999998</v>
       </c>
-      <c r="AM2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+      <c r="AO2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
         <v>55.53</v>
       </c>
-      <c r="AN2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+      <c r="AP2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AP2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>1.52</v>
       </c>
-      <c r="AQ2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+      <c r="AS2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
         <v>1.28</v>
       </c>
-      <c r="AR2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+      <c r="AT2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
         <v>95.74</v>
       </c>
-      <c r="AS2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+      <c r="AU2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>98.683999999999997</v>
       </c>
-      <c r="AT2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>78.459999999999994</v>
       </c>
-      <c r="AU2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>85.92</v>
       </c>
-      <c r="AV2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>92.29</v>
       </c>
-      <c r="AW2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>96.29</v>
       </c>
-      <c r="AX2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>17.739999999999998</v>
       </c>
-      <c r="AY2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>43.76</v>
       </c>
-      <c r="AZ2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>63.78</v>
       </c>
-      <c r="BA2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>75.760000000000005</v>
       </c>
-      <c r="BB2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>87.11</v>
       </c>
-      <c r="BC2">
-        <f>VLOOKUP($X2,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE2">
+        <f>VLOOKUP($Z2,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>105.22</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="12">
-        <f>Y3</f>
+      <c r="B3" s="24">
+        <f t="shared" ref="B3:B21" si="3">AA3</f>
         <v>21.94</v>
       </c>
-      <c r="C3" s="1">
-        <f>Z3</f>
+      <c r="C3" s="24">
+        <f t="shared" ref="C3:C21" si="4">AB3</f>
         <v>40.67</v>
       </c>
-      <c r="D3" s="1">
-        <f>AC3</f>
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:D21" si="5">AD3</f>
+        <v>46.92</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E21" si="6">AE3</f>
         <v>60.01</v>
       </c>
-      <c r="E3" s="1">
-        <f>AU3</f>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F21" si="7">AF3</f>
+        <v>73.58</v>
+      </c>
+      <c r="G3" s="20">
+        <f t="shared" ref="G3:G21" si="8">AW3</f>
         <v>63.39</v>
       </c>
-      <c r="F3" s="1">
-        <f>AW3</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H21" si="9">AY3</f>
         <v>80.03</v>
       </c>
-      <c r="G3" s="5">
-        <f>BC3</f>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I21" si="10">BE3</f>
         <v>90.16</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I21" si="0">AG3</f>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K21" si="11">AI3</f>
         <v>12.57</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J21" si="1">AH3</f>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L21" si="12">AJ3</f>
         <v>4.82</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K21" si="2">AI3</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M21" si="13">AK3</f>
         <v>9.9600000000000009</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L21" si="3">AJ3</f>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N15" si="14">AL3</f>
         <v>22.78</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M21" si="4">AK3</f>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O14" si="15">AM3</f>
         <v>26.61</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N21" si="5">AL3</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P8" si="16">AN3</f>
         <v>13.75</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O21" si="6">AM3</f>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3" si="17">AO3</f>
         <v>9.51</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="12">
-        <f>AS3</f>
+      <c r="S3" s="12">
+        <f t="shared" si="2"/>
         <v>82.61</v>
       </c>
-      <c r="R3" s="12">
-        <f t="shared" ref="R3:R21" si="7">AN3</f>
+      <c r="T3" s="12">
+        <f t="shared" ref="T3:T21" si="18">AP3</f>
         <v>0.45</v>
       </c>
-      <c r="S3" s="1">
-        <f t="shared" ref="S3:S21" si="8">AO3</f>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U18" si="19">AQ3</f>
         <v>1.56</v>
       </c>
-      <c r="T3" s="1">
-        <f t="shared" ref="T3:T21" si="9">AP3</f>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V10" si="20">AR3</f>
         <v>15.09</v>
       </c>
-      <c r="U3" s="1">
-        <f t="shared" ref="U3:U21" si="10">AQ3</f>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W9" si="21">AS3</f>
         <v>24.11</v>
       </c>
-      <c r="V3" s="5">
-        <f t="shared" ref="V3:V21" si="11">AR3</f>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:X5" si="22">AT3</f>
         <v>41.4</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>76</v>
       </c>
-      <c r="Y3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>21.94</v>
       </c>
-      <c r="Z3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>40.67</v>
       </c>
-      <c r="AA3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>33.97</v>
       </c>
-      <c r="AB3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>46.92</v>
       </c>
-      <c r="AC3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>60.01</v>
       </c>
-      <c r="AD3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>73.58</v>
       </c>
-      <c r="AE3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>82.52</v>
       </c>
-      <c r="AF3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>90.16</v>
       </c>
-      <c r="AG3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>12.57</v>
       </c>
-      <c r="AH3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>4.82</v>
       </c>
-      <c r="AI3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>9.9600000000000009</v>
       </c>
-      <c r="AJ3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>22.78</v>
       </c>
-      <c r="AK3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>26.61</v>
       </c>
-      <c r="AL3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+      <c r="AN3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>13.75</v>
       </c>
-      <c r="AM3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+      <c r="AO3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
         <v>9.51</v>
       </c>
-      <c r="AN3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+      <c r="AP3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>0.45</v>
       </c>
-      <c r="AO3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+      <c r="AQ3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>1.56</v>
       </c>
-      <c r="AP3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>15.09</v>
       </c>
-      <c r="AQ3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+      <c r="AS3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
         <v>24.11</v>
       </c>
-      <c r="AR3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+      <c r="AT3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
         <v>41.4</v>
       </c>
-      <c r="AS3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+      <c r="AU3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>82.61</v>
       </c>
-      <c r="AT3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>52.92</v>
       </c>
-      <c r="AU3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>63.39</v>
       </c>
-      <c r="AV3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>74.89</v>
       </c>
-      <c r="AW3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>80.03</v>
       </c>
-      <c r="AX3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>8.93</v>
       </c>
-      <c r="AY3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>23.37</v>
       </c>
-      <c r="AZ3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>34.24</v>
       </c>
-      <c r="BA3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>47.33</v>
       </c>
-      <c r="BB3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>68.239999999999995</v>
       </c>
-      <c r="BC3">
-        <f>VLOOKUP($X3,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE3">
+        <f>VLOOKUP($Z3,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>90.16</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="13">
-        <f>Y4</f>
+      <c r="B4" s="25">
+        <f t="shared" si="3"/>
         <v>21.26</v>
       </c>
-      <c r="C4" s="6">
-        <f>Z4</f>
+      <c r="C4" s="25">
+        <f t="shared" si="4"/>
         <v>31.41</v>
       </c>
-      <c r="D4" s="6">
-        <f>AC4</f>
+      <c r="D4" s="13">
+        <f t="shared" si="5"/>
+        <v>40.69</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="6"/>
         <v>43.81</v>
       </c>
-      <c r="E4" s="6">
-        <f>AU4</f>
+      <c r="F4" s="7">
+        <f t="shared" si="7"/>
+        <v>45.89</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="8"/>
         <v>43.6</v>
       </c>
-      <c r="F4" s="6">
-        <f>AW4</f>
+      <c r="H4" s="6">
+        <f t="shared" si="9"/>
         <v>47.52</v>
       </c>
-      <c r="G4" s="7">
-        <f>BC4</f>
+      <c r="I4" s="7">
+        <f t="shared" si="10"/>
         <v>50.19</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="6">
-        <f>AG4</f>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:P4" si="23">AI4</f>
         <v>0.92</v>
       </c>
-      <c r="J4" s="6">
-        <f>AH4</f>
+      <c r="L4" s="6">
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
-      <c r="K4" s="6">
-        <f>AI4</f>
+      <c r="M4" s="6">
+        <f t="shared" si="23"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L4" s="6">
-        <f>AJ4</f>
+      <c r="N4" s="6">
+        <f t="shared" si="23"/>
         <v>44.11</v>
       </c>
-      <c r="M4" s="6">
-        <f>AK4</f>
+      <c r="O4" s="6">
+        <f t="shared" si="23"/>
         <v>50.88</v>
       </c>
-      <c r="N4" s="6">
-        <f>AL4</f>
+      <c r="P4" s="6">
+        <f t="shared" si="23"/>
         <v>1.48</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="13">
-        <f>AS4</f>
+      <c r="S4" s="13">
+        <f t="shared" si="2"/>
         <v>98.68</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="6">
-        <f>AO4</f>
-        <v>0.9</v>
-      </c>
-      <c r="T4" s="6">
-        <f>AP4</f>
-        <v>62.13</v>
-      </c>
+      <c r="T4" s="13"/>
       <c r="U4" s="6">
         <f>AQ4</f>
+        <v>0.9</v>
+      </c>
+      <c r="V4" s="6">
+        <f>AR4</f>
+        <v>62.13</v>
+      </c>
+      <c r="W4" s="6">
+        <f>AS4</f>
         <v>35.65</v>
       </c>
-      <c r="V4" s="7">
-        <f>AR4</f>
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="X4" s="7"/>
+      <c r="Z4" t="s">
         <v>46</v>
       </c>
-      <c r="Y4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>21.26</v>
       </c>
-      <c r="Z4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>31.41</v>
       </c>
-      <c r="AA4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>32.85</v>
       </c>
-      <c r="AB4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>40.69</v>
       </c>
-      <c r="AC4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>43.81</v>
       </c>
-      <c r="AD4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>45.89</v>
       </c>
-      <c r="AE4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>47.96</v>
       </c>
-      <c r="AF4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>50.19</v>
       </c>
-      <c r="AG4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>0.92</v>
       </c>
-      <c r="AH4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>0.4</v>
       </c>
-      <c r="AI4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AJ4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>44.11</v>
       </c>
-      <c r="AK4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>50.88</v>
       </c>
-      <c r="AL4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+      <c r="AN4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>1.48</v>
       </c>
-      <c r="AM4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AO4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>0.9</v>
       </c>
-      <c r="AP4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>62.13</v>
       </c>
-      <c r="AQ4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+      <c r="AS4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
         <v>35.65</v>
       </c>
-      <c r="AR4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+      <c r="AT4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>98.68</v>
       </c>
-      <c r="AT4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>40.409999999999997</v>
       </c>
-      <c r="AU4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>43.6</v>
       </c>
-      <c r="AV4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>46.12</v>
       </c>
-      <c r="AW4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>47.52</v>
       </c>
-      <c r="AX4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>18.91</v>
       </c>
-      <c r="AY4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>26.19</v>
       </c>
-      <c r="AZ4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>30.62</v>
       </c>
-      <c r="BA4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>36.25</v>
       </c>
-      <c r="BB4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>42.57</v>
       </c>
-      <c r="BC4">
-        <f>VLOOKUP($X4,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE4">
+        <f>VLOOKUP($Z4,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>50.19</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="11">
-        <f>Y5</f>
+      <c r="B5" s="23">
+        <f t="shared" si="3"/>
         <v>25.56</v>
       </c>
-      <c r="C5" s="3">
-        <f>Z5</f>
+      <c r="C5" s="23">
+        <f t="shared" si="4"/>
         <v>28.39</v>
       </c>
-      <c r="D5" s="3">
-        <f>AC5</f>
+      <c r="D5" s="11">
+        <f t="shared" si="5"/>
+        <v>31.6</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="6"/>
         <v>36.090000000000003</v>
       </c>
-      <c r="E5" s="3">
-        <f>AU5</f>
+      <c r="F5" s="4">
+        <f t="shared" si="7"/>
+        <v>40.6</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="8"/>
         <v>37.700000000000003</v>
       </c>
-      <c r="F5" s="3">
-        <f>AW5</f>
+      <c r="H5" s="3">
+        <f t="shared" si="9"/>
         <v>47.64</v>
       </c>
-      <c r="G5" s="4">
-        <f>BC5</f>
+      <c r="I5" s="4">
+        <f t="shared" si="10"/>
         <v>61.67</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
+      <c r="K5" s="3">
+        <f t="shared" si="11"/>
         <v>1.62</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="1"/>
+      <c r="L5" s="3">
+        <f t="shared" si="12"/>
         <v>1.92</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
+        <f t="shared" si="13"/>
+        <v>10.38</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="14"/>
+        <v>51.7</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="15"/>
+        <v>32.44</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="16"/>
+        <v>1.93</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="11">
         <f t="shared" si="2"/>
+        <v>96.459000000000003</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="18"/>
+        <v>0.76</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="19"/>
+        <v>16.46</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="20"/>
+        <v>69.33</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="21"/>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="22"/>
+        <v>0.12</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>25.56</v>
+      </c>
+      <c r="AB5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>28.39</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>24.82</v>
+      </c>
+      <c r="AD5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>31.6</v>
+      </c>
+      <c r="AE5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>36.090000000000003</v>
+      </c>
+      <c r="AF5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>40.6</v>
+      </c>
+      <c r="AG5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>48.62</v>
+      </c>
+      <c r="AH5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>61.67</v>
+      </c>
+      <c r="AI5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>1.62</v>
+      </c>
+      <c r="AJ5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>1.92</v>
+      </c>
+      <c r="AK5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>10.38</v>
       </c>
-      <c r="L5" s="3">
-        <f t="shared" si="3"/>
+      <c r="AL5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>51.7</v>
       </c>
-      <c r="M5" s="3">
-        <f t="shared" si="4"/>
+      <c r="AM5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>32.44</v>
       </c>
-      <c r="N5" s="3">
-        <f t="shared" si="5"/>
+      <c r="AN5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>1.93</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="11">
-        <f>AS5</f>
+      <c r="AO5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>0.76</v>
+      </c>
+      <c r="AQ5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>16.46</v>
+      </c>
+      <c r="AR5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>69.33</v>
+      </c>
+      <c r="AS5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="AT5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="AU5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>96.459000000000003</v>
       </c>
-      <c r="R5" s="11">
-        <f t="shared" si="7"/>
-        <v>0.76</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" si="8"/>
-        <v>16.46</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="9"/>
-        <v>69.33</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="10"/>
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" si="11"/>
-        <v>0.12</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>25.56</v>
-      </c>
-      <c r="Z5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>28.39</v>
-      </c>
-      <c r="AA5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>24.82</v>
-      </c>
-      <c r="AB5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>31.6</v>
-      </c>
-      <c r="AC5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>36.090000000000003</v>
-      </c>
-      <c r="AD5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>40.6</v>
-      </c>
-      <c r="AE5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>48.62</v>
-      </c>
-      <c r="AF5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AV5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>33.83</v>
+      </c>
+      <c r="AW5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AX5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>43.18</v>
+      </c>
+      <c r="AY5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>47.64</v>
+      </c>
+      <c r="AZ5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>10.77</v>
+      </c>
+      <c r="BA5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>20.77</v>
+      </c>
+      <c r="BB5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>26.84</v>
+      </c>
+      <c r="BC5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>32.47</v>
+      </c>
+      <c r="BD5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>40.97</v>
+      </c>
+      <c r="BE5">
+        <f>VLOOKUP($Z5,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>61.67</v>
       </c>
-      <c r="AG5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>1.62</v>
-      </c>
-      <c r="AH5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>1.92</v>
-      </c>
-      <c r="AI5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>10.38</v>
-      </c>
-      <c r="AJ5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>51.7</v>
-      </c>
-      <c r="AK5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>32.44</v>
-      </c>
-      <c r="AL5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>1.93</v>
-      </c>
-      <c r="AM5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0.76</v>
-      </c>
-      <c r="AO5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>16.46</v>
-      </c>
-      <c r="AP5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>69.33</v>
-      </c>
-      <c r="AQ5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="AR5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="AS5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>96.459000000000003</v>
-      </c>
-      <c r="AT5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>33.83</v>
-      </c>
-      <c r="AU5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="AV5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>43.18</v>
-      </c>
-      <c r="AW5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>47.64</v>
-      </c>
-      <c r="AX5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>10.77</v>
-      </c>
-      <c r="AY5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>20.77</v>
-      </c>
-      <c r="AZ5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>26.84</v>
-      </c>
-      <c r="BA5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>32.47</v>
-      </c>
-      <c r="BB5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>40.97</v>
-      </c>
-      <c r="BC5">
-        <f>VLOOKUP($X5,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>61.67</v>
-      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="12">
-        <f>Y6</f>
+      <c r="B6" s="24">
+        <f t="shared" si="3"/>
         <v>23.04</v>
       </c>
-      <c r="C6" s="1">
-        <f>Z6</f>
+      <c r="C6" s="24">
+        <f t="shared" si="4"/>
         <v>23.93</v>
       </c>
-      <c r="D6" s="1">
-        <f>AC6</f>
+      <c r="D6" s="12">
+        <f t="shared" si="5"/>
+        <v>26.38</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="6"/>
         <v>29.72</v>
       </c>
-      <c r="E6" s="1">
-        <f>AU6</f>
+      <c r="F6" s="5">
+        <f t="shared" si="7"/>
+        <v>33.43</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="8"/>
         <v>31.06</v>
       </c>
-      <c r="F6" s="1">
-        <f>AW6</f>
+      <c r="H6" s="1">
+        <f t="shared" si="9"/>
         <v>37.96</v>
       </c>
-      <c r="G6" s="5">
-        <f>BC6</f>
+      <c r="I6" s="5">
+        <f t="shared" si="10"/>
         <v>49.55</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="J6" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="I6" s="1">
-        <f>AG6</f>
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="1">
-        <f>AH6</f>
-        <v>0.02</v>
       </c>
       <c r="K6" s="1">
         <f>AI6</f>
-        <v>3.78</v>
+        <v>0.01</v>
       </c>
       <c r="L6" s="1">
         <f>AJ6</f>
-        <v>83.85</v>
+        <v>0.02</v>
       </c>
       <c r="M6" s="1">
         <f>AK6</f>
+        <v>3.78</v>
+      </c>
+      <c r="N6" s="1">
+        <f>AL6</f>
+        <v>83.85</v>
+      </c>
+      <c r="O6" s="1">
+        <f>AM6</f>
         <v>12.33</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Q6" s="12">
-        <f>AS6</f>
+      <c r="S6" s="12">
+        <f t="shared" si="2"/>
         <v>99.968000000000004</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="1">
-        <f>AO6</f>
-        <v>52.18</v>
-      </c>
-      <c r="T6" s="1">
-        <f>AP6</f>
-        <v>47.51</v>
-      </c>
+      <c r="T6" s="12"/>
       <c r="U6" s="1">
         <f>AQ6</f>
+        <v>52.18</v>
+      </c>
+      <c r="V6" s="1">
+        <f>AR6</f>
+        <v>47.51</v>
+      </c>
+      <c r="W6" s="1">
+        <f>AS6</f>
         <v>0.24</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="X6" t="s">
+      <c r="X6" s="5"/>
+      <c r="Z6" t="s">
         <v>62</v>
       </c>
-      <c r="Y6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>23.04</v>
       </c>
-      <c r="Z6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>23.93</v>
       </c>
-      <c r="AA6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>21.68</v>
       </c>
-      <c r="AB6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>26.38</v>
       </c>
-      <c r="AC6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>29.72</v>
       </c>
-      <c r="AD6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>33.43</v>
       </c>
-      <c r="AE6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>38.42</v>
       </c>
-      <c r="AF6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>49.55</v>
       </c>
-      <c r="AG6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="AH6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>0.02</v>
       </c>
-      <c r="AI6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>3.78</v>
       </c>
-      <c r="AJ6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>83.85</v>
       </c>
-      <c r="AK6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>12.33</v>
       </c>
-      <c r="AL6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+      <c r="AN6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="AM6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+      <c r="AO6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="AO6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+      <c r="AQ6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>52.18</v>
       </c>
-      <c r="AP6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>47.51</v>
       </c>
-      <c r="AQ6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+      <c r="AS6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
         <v>0.24</v>
       </c>
-      <c r="AR6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+      <c r="AT6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>99.968000000000004</v>
       </c>
-      <c r="AT6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>28.53</v>
       </c>
-      <c r="AU6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>31.06</v>
       </c>
-      <c r="AV6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>34.89</v>
       </c>
-      <c r="AW6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>37.96</v>
       </c>
-      <c r="AX6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>15.68</v>
       </c>
-      <c r="AY6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>20.55</v>
       </c>
-      <c r="AZ6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>23.67</v>
       </c>
-      <c r="BA6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>27.26</v>
       </c>
-      <c r="BB6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>32.67</v>
       </c>
-      <c r="BC6">
-        <f>VLOOKUP($X6,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE6">
+        <f>VLOOKUP($Z6,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>49.55</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="13">
-        <f>Y7</f>
+      <c r="B7" s="25">
+        <f t="shared" si="3"/>
         <v>10.65</v>
       </c>
-      <c r="C7" s="6">
-        <f>Z7</f>
+      <c r="C7" s="25">
+        <f t="shared" si="4"/>
         <v>6.75</v>
       </c>
-      <c r="D7" s="6">
-        <f>AC7</f>
+      <c r="D7" s="13">
+        <f t="shared" si="5"/>
+        <v>7.55</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="6"/>
         <v>8.7899999999999991</v>
       </c>
-      <c r="E7" s="6">
-        <f>AU7</f>
+      <c r="F7" s="7">
+        <f t="shared" si="7"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="8"/>
         <v>9.8699999999999992</v>
       </c>
-      <c r="F7" s="6">
-        <f>AW7</f>
+      <c r="H7" s="6">
+        <f t="shared" si="9"/>
         <v>12.71</v>
       </c>
-      <c r="G7" s="7">
-        <f>BC7</f>
+      <c r="I7" s="7">
+        <f t="shared" si="10"/>
         <v>14.63</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="I7" s="6">
-        <f>AG7</f>
-        <v>5.23</v>
-      </c>
-      <c r="J7" s="6">
-        <f>AH7</f>
-        <v>36.340000000000003</v>
       </c>
       <c r="K7" s="6">
         <f>AI7</f>
+        <v>5.23</v>
+      </c>
+      <c r="L7" s="6">
+        <f>AJ7</f>
+        <v>36.340000000000003</v>
+      </c>
+      <c r="M7" s="6">
+        <f>AK7</f>
         <v>58.43</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="13">
-        <f>AS7</f>
+      <c r="S7" s="13">
+        <f t="shared" si="2"/>
         <v>58.427</v>
       </c>
-      <c r="R7" s="13">
-        <f>AN7</f>
+      <c r="T7" s="13">
+        <f>AP7</f>
         <v>58.43</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="7"/>
-      <c r="X7" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="7"/>
+      <c r="Z7" t="s">
         <v>60</v>
       </c>
-      <c r="Y7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>10.65</v>
       </c>
-      <c r="Z7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>6.75</v>
       </c>
-      <c r="AA7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>6.31</v>
       </c>
-      <c r="AB7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>7.55</v>
       </c>
-      <c r="AC7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>8.7899999999999991</v>
       </c>
-      <c r="AD7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="AE7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>12.2</v>
       </c>
-      <c r="AF7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>14.63</v>
       </c>
-      <c r="AG7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>5.23</v>
       </c>
-      <c r="AH7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>36.340000000000003</v>
       </c>
-      <c r="AI7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>58.43</v>
       </c>
-      <c r="AJ7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AL7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AM7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>58.43</v>
       </c>
-      <c r="AO7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AQ7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AR7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AS7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>58.427</v>
       </c>
-      <c r="AT7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="AU7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>9.8699999999999992</v>
       </c>
-      <c r="AV7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>11.42</v>
       </c>
-      <c r="AW7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>12.71</v>
       </c>
-      <c r="AX7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>5.2</v>
       </c>
-      <c r="AY7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>5.75</v>
       </c>
-      <c r="AZ7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>6.59</v>
       </c>
-      <c r="BA7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>7.87</v>
       </c>
-      <c r="BB7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>10.15</v>
       </c>
-      <c r="BC7">
-        <f>VLOOKUP($X7,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE7">
+        <f>VLOOKUP($Z7,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>14.63</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="11">
-        <f>Y8</f>
+      <c r="B8" s="23">
+        <f t="shared" si="3"/>
         <v>22.05</v>
       </c>
-      <c r="C8" s="3">
-        <f>Z8</f>
+      <c r="C8" s="23">
+        <f t="shared" si="4"/>
         <v>29.97</v>
       </c>
-      <c r="D8" s="3">
-        <f>AC8</f>
+      <c r="D8" s="11">
+        <f t="shared" si="5"/>
+        <v>33.86</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="6"/>
         <v>37.590000000000003</v>
       </c>
-      <c r="E8" s="3">
-        <f>AU8</f>
+      <c r="F8" s="4">
+        <f t="shared" si="7"/>
+        <v>41.94</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="8"/>
         <v>38.86</v>
       </c>
-      <c r="F8" s="3">
-        <f>AW8</f>
+      <c r="H8" s="3">
+        <f t="shared" si="9"/>
         <v>45.98</v>
       </c>
-      <c r="G8" s="4">
-        <f>BC8</f>
+      <c r="I8" s="4">
+        <f t="shared" si="10"/>
         <v>55.52</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
+      <c r="K8" s="3">
+        <f t="shared" si="11"/>
         <v>1.97</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="1"/>
+      <c r="L8" s="3">
+        <f t="shared" si="12"/>
         <v>2.99</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
+        <f t="shared" si="13"/>
+        <v>11.46</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="14"/>
+        <v>43.63</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="15"/>
+        <v>38.76</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="16"/>
+        <v>1.19</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="11">
         <f t="shared" si="2"/>
+        <v>95.037999999999997</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="18"/>
+        <v>0.81</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="19"/>
+        <v>7.8</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="20"/>
+        <v>74.06</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="21"/>
+        <v>12.37</v>
+      </c>
+      <c r="X8" s="4"/>
+      <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>22.05</v>
+      </c>
+      <c r="AB8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>29.97</v>
+      </c>
+      <c r="AC8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>27.97</v>
+      </c>
+      <c r="AD8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>33.86</v>
+      </c>
+      <c r="AE8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>37.590000000000003</v>
+      </c>
+      <c r="AF8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>41.94</v>
+      </c>
+      <c r="AG8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>47.98</v>
+      </c>
+      <c r="AH8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>55.52</v>
+      </c>
+      <c r="AI8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>1.97</v>
+      </c>
+      <c r="AJ8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>2.99</v>
+      </c>
+      <c r="AK8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>11.46</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="3"/>
+      <c r="AL8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>43.63</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" si="4"/>
+      <c r="AM8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>38.76</v>
       </c>
-      <c r="N8" s="3">
-        <f t="shared" si="5"/>
+      <c r="AN8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>1.19</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="11">
-        <f>AS8</f>
+      <c r="AO8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>0.81</v>
+      </c>
+      <c r="AQ8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>7.8</v>
+      </c>
+      <c r="AR8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>74.06</v>
+      </c>
+      <c r="AS8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>12.37</v>
+      </c>
+      <c r="AT8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>95.037999999999997</v>
       </c>
-      <c r="R8" s="11">
-        <f t="shared" si="7"/>
-        <v>0.81</v>
-      </c>
-      <c r="S8" s="3">
-        <f t="shared" si="8"/>
-        <v>7.8</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="9"/>
-        <v>74.06</v>
-      </c>
-      <c r="U8" s="3">
-        <f t="shared" si="10"/>
-        <v>12.37</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="X8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>22.05</v>
-      </c>
-      <c r="Z8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>29.97</v>
-      </c>
-      <c r="AA8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>27.97</v>
-      </c>
-      <c r="AB8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>33.86</v>
-      </c>
-      <c r="AC8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>37.590000000000003</v>
-      </c>
-      <c r="AD8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>41.94</v>
-      </c>
-      <c r="AE8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>47.98</v>
-      </c>
-      <c r="AF8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AV8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>35.44</v>
+      </c>
+      <c r="AW8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>38.86</v>
+      </c>
+      <c r="AX8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>43.03</v>
+      </c>
+      <c r="AY8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>45.98</v>
+      </c>
+      <c r="AZ8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="BA8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>21.82</v>
+      </c>
+      <c r="BB8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>28.24</v>
+      </c>
+      <c r="BC8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>33.520000000000003</v>
+      </c>
+      <c r="BD8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>40.770000000000003</v>
+      </c>
+      <c r="BE8">
+        <f>VLOOKUP($Z8,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>55.52</v>
       </c>
-      <c r="AG8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>1.97</v>
-      </c>
-      <c r="AH8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>2.99</v>
-      </c>
-      <c r="AI8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>11.46</v>
-      </c>
-      <c r="AJ8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>43.63</v>
-      </c>
-      <c r="AK8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>38.76</v>
-      </c>
-      <c r="AL8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>1.19</v>
-      </c>
-      <c r="AM8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0.81</v>
-      </c>
-      <c r="AO8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>7.8</v>
-      </c>
-      <c r="AP8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>74.06</v>
-      </c>
-      <c r="AQ8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>12.37</v>
-      </c>
-      <c r="AR8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>95.037999999999997</v>
-      </c>
-      <c r="AT8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>35.44</v>
-      </c>
-      <c r="AU8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>38.86</v>
-      </c>
-      <c r="AV8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>43.03</v>
-      </c>
-      <c r="AW8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>45.98</v>
-      </c>
-      <c r="AX8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="AY8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>21.82</v>
-      </c>
-      <c r="AZ8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>28.24</v>
-      </c>
-      <c r="BA8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>33.520000000000003</v>
-      </c>
-      <c r="BB8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>40.770000000000003</v>
-      </c>
-      <c r="BC8">
-        <f>VLOOKUP($X8,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>55.52</v>
-      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="12">
-        <f>Y9</f>
+      <c r="B9" s="24">
+        <f t="shared" si="3"/>
         <v>21.14</v>
       </c>
-      <c r="C9" s="1">
-        <f>Z9</f>
+      <c r="C9" s="24">
+        <f t="shared" si="4"/>
         <v>26.81</v>
       </c>
-      <c r="D9" s="1">
-        <f>AC9</f>
+      <c r="D9" s="12">
+        <f t="shared" si="5"/>
+        <v>29.58</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="6"/>
         <v>33.590000000000003</v>
       </c>
-      <c r="E9" s="1">
-        <f>AU9</f>
+      <c r="F9" s="5">
+        <f t="shared" si="7"/>
+        <v>37.08</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="8"/>
         <v>34.159999999999997</v>
       </c>
-      <c r="F9" s="1">
-        <f>AW9</f>
+      <c r="H9" s="1">
+        <f t="shared" si="9"/>
         <v>39.29</v>
       </c>
-      <c r="G9" s="5">
-        <f>BC9</f>
+      <c r="I9" s="5">
+        <f t="shared" si="10"/>
         <v>46.72</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
+      <c r="K9" s="1">
+        <f t="shared" si="11"/>
         <v>0.4</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
+      <c r="L9" s="1">
+        <f t="shared" si="12"/>
         <v>0.68</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
+        <f t="shared" si="13"/>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="14"/>
+        <v>61.43</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="15"/>
+        <v>27.46</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="12">
         <f t="shared" si="2"/>
+        <v>98.927000000000007</v>
+      </c>
+      <c r="T9" s="12">
+        <f t="shared" si="18"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="19"/>
+        <v>26.7</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="20"/>
+        <v>71.62</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="21"/>
+        <v>0.32</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Z9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>21.14</v>
+      </c>
+      <c r="AB9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>26.81</v>
+      </c>
+      <c r="AC9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>24.04</v>
+      </c>
+      <c r="AD9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>29.58</v>
+      </c>
+      <c r="AE9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>33.590000000000003</v>
+      </c>
+      <c r="AF9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>37.08</v>
+      </c>
+      <c r="AG9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>40.74</v>
+      </c>
+      <c r="AH9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>46.72</v>
+      </c>
+      <c r="AI9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AJ9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>0.68</v>
+      </c>
+      <c r="AK9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>10.039999999999999</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="3"/>
+      <c r="AL9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>61.43</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="4"/>
+      <c r="AM9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>27.46</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="12">
-        <f>AS9</f>
+      <c r="AN9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0.01</v>
+      </c>
+      <c r="AO9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AQ9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>26.7</v>
+      </c>
+      <c r="AR9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>71.62</v>
+      </c>
+      <c r="AS9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AT9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>98.927000000000007</v>
       </c>
-      <c r="R9" s="12">
-        <f t="shared" si="7"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="8"/>
-        <v>26.7</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="9"/>
-        <v>71.62</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="10"/>
-        <v>0.32</v>
-      </c>
-      <c r="V9" s="5"/>
-      <c r="X9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>21.14</v>
-      </c>
-      <c r="Z9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>26.81</v>
-      </c>
-      <c r="AA9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>24.04</v>
-      </c>
-      <c r="AB9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>29.58</v>
-      </c>
-      <c r="AC9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>33.590000000000003</v>
-      </c>
-      <c r="AD9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>37.08</v>
-      </c>
-      <c r="AE9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>40.74</v>
-      </c>
-      <c r="AF9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AV9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>31.65</v>
+      </c>
+      <c r="AW9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>34.159999999999997</v>
+      </c>
+      <c r="AX9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>37.22</v>
+      </c>
+      <c r="AY9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>39.29</v>
+      </c>
+      <c r="AZ9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>11.57</v>
+      </c>
+      <c r="BA9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>20.67</v>
+      </c>
+      <c r="BB9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>25.79</v>
+      </c>
+      <c r="BC9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>30.62</v>
+      </c>
+      <c r="BD9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>35.9</v>
+      </c>
+      <c r="BE9">
+        <f>VLOOKUP($Z9,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>46.72</v>
       </c>
-      <c r="AG9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="AH9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>0.68</v>
-      </c>
-      <c r="AI9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>10.039999999999999</v>
-      </c>
-      <c r="AJ9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>61.43</v>
-      </c>
-      <c r="AK9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>27.46</v>
-      </c>
-      <c r="AL9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="AM9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AO9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>26.7</v>
-      </c>
-      <c r="AP9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>71.62</v>
-      </c>
-      <c r="AQ9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0.32</v>
-      </c>
-      <c r="AR9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>98.927000000000007</v>
-      </c>
-      <c r="AT9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>31.65</v>
-      </c>
-      <c r="AU9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>34.159999999999997</v>
-      </c>
-      <c r="AV9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>37.22</v>
-      </c>
-      <c r="AW9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>39.29</v>
-      </c>
-      <c r="AX9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>11.57</v>
-      </c>
-      <c r="AY9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>20.67</v>
-      </c>
-      <c r="AZ9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>25.79</v>
-      </c>
-      <c r="BA9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>30.62</v>
-      </c>
-      <c r="BB9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>35.9</v>
-      </c>
-      <c r="BC9">
-        <f>VLOOKUP($X9,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>46.72</v>
-      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="12">
-        <f>Y10</f>
+      <c r="B10" s="24">
+        <f t="shared" si="3"/>
         <v>22.9</v>
       </c>
-      <c r="C10" s="1">
-        <f>Z10</f>
+      <c r="C10" s="24">
+        <f t="shared" si="4"/>
         <v>29.19</v>
       </c>
-      <c r="D10" s="1">
-        <f>AC10</f>
+      <c r="D10" s="12">
+        <f t="shared" si="5"/>
+        <v>32.020000000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="6"/>
         <v>33.53</v>
       </c>
-      <c r="E10" s="1">
-        <f>AU10</f>
+      <c r="F10" s="5">
+        <f t="shared" si="7"/>
+        <v>35.29</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="8"/>
         <v>34.130000000000003</v>
       </c>
-      <c r="F10" s="1">
-        <f>AW10</f>
+      <c r="H10" s="1">
+        <f t="shared" si="9"/>
         <v>38.130000000000003</v>
       </c>
-      <c r="G10" s="5">
-        <f>BC10</f>
+      <c r="I10" s="5">
+        <f t="shared" si="10"/>
         <v>43.13</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
+      <c r="K10" s="1">
+        <f t="shared" si="11"/>
         <v>1.83</v>
       </c>
-      <c r="J10" s="1">
-        <f t="shared" si="1"/>
+      <c r="L10" s="1">
+        <f t="shared" si="12"/>
         <v>1.22</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
+        <f t="shared" si="13"/>
+        <v>5.81</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="14"/>
+        <v>53.63</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="15"/>
+        <v>37.51</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" s="12">
         <f t="shared" si="2"/>
+        <v>96.951999999999998</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="1">
+        <f t="shared" si="19"/>
+        <v>7.36</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="20"/>
+        <v>89.57</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="5"/>
+      <c r="Z10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>22.9</v>
+      </c>
+      <c r="AB10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>29.19</v>
+      </c>
+      <c r="AC10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>28.88</v>
+      </c>
+      <c r="AD10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>32.020000000000003</v>
+      </c>
+      <c r="AE10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>33.53</v>
+      </c>
+      <c r="AF10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>35.29</v>
+      </c>
+      <c r="AG10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>38.08</v>
+      </c>
+      <c r="AH10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>43.13</v>
+      </c>
+      <c r="AI10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>1.83</v>
+      </c>
+      <c r="AJ10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>1.22</v>
+      </c>
+      <c r="AK10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>5.81</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="3"/>
+      <c r="AL10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>53.63</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="4"/>
+      <c r="AM10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>37.51</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="12">
-        <f>AS10</f>
+      <c r="AN10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>0.02</v>
+      </c>
+      <c r="AQ10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>7.36</v>
+      </c>
+      <c r="AR10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>89.57</v>
+      </c>
+      <c r="AS10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>96.951999999999998</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="1">
-        <f t="shared" si="8"/>
-        <v>7.36</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="9"/>
-        <v>89.57</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="5"/>
-      <c r="X10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>22.9</v>
-      </c>
-      <c r="Z10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>29.19</v>
-      </c>
-      <c r="AA10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>28.88</v>
-      </c>
-      <c r="AB10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>32.020000000000003</v>
-      </c>
-      <c r="AC10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>33.53</v>
-      </c>
-      <c r="AD10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>35.29</v>
-      </c>
-      <c r="AE10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>38.08</v>
-      </c>
-      <c r="AF10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AV10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>32.270000000000003</v>
+      </c>
+      <c r="AW10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>34.130000000000003</v>
+      </c>
+      <c r="AX10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>36.31</v>
+      </c>
+      <c r="AY10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>38.130000000000003</v>
+      </c>
+      <c r="AZ10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>13.79</v>
+      </c>
+      <c r="BA10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>23.99</v>
+      </c>
+      <c r="BB10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>28.46</v>
+      </c>
+      <c r="BC10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>31.51</v>
+      </c>
+      <c r="BD10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>34.53</v>
+      </c>
+      <c r="BE10">
+        <f>VLOOKUP($Z10,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>43.13</v>
       </c>
-      <c r="AG10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>1.83</v>
-      </c>
-      <c r="AH10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>1.22</v>
-      </c>
-      <c r="AI10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>5.81</v>
-      </c>
-      <c r="AJ10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>53.63</v>
-      </c>
-      <c r="AK10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>37.51</v>
-      </c>
-      <c r="AL10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0.02</v>
-      </c>
-      <c r="AO10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>7.36</v>
-      </c>
-      <c r="AP10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>89.57</v>
-      </c>
-      <c r="AQ10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>96.951999999999998</v>
-      </c>
-      <c r="AT10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>32.270000000000003</v>
-      </c>
-      <c r="AU10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>34.130000000000003</v>
-      </c>
-      <c r="AV10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>36.31</v>
-      </c>
-      <c r="AW10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>38.130000000000003</v>
-      </c>
-      <c r="AX10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>13.79</v>
-      </c>
-      <c r="AY10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>23.99</v>
-      </c>
-      <c r="AZ10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>28.46</v>
-      </c>
-      <c r="BA10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>31.51</v>
-      </c>
-      <c r="BB10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>34.53</v>
-      </c>
-      <c r="BC10">
-        <f>VLOOKUP($X10,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>43.13</v>
-      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="12">
-        <f>Y11</f>
+      <c r="B11" s="24">
+        <f t="shared" si="3"/>
         <v>20.78</v>
       </c>
-      <c r="C11" s="1">
-        <f>Z11</f>
+      <c r="C11" s="24">
+        <f t="shared" si="4"/>
         <v>27.43</v>
       </c>
-      <c r="D11" s="1">
-        <f>AC11</f>
+      <c r="D11" s="12">
+        <f t="shared" si="5"/>
+        <v>29.01</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="6"/>
         <v>30.39</v>
       </c>
-      <c r="E11" s="1">
-        <f>AU11</f>
+      <c r="F11" s="5">
+        <f t="shared" si="7"/>
+        <v>31.72</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="8"/>
         <v>30.68</v>
       </c>
-      <c r="F11" s="1">
-        <f>AW11</f>
+      <c r="H11" s="1">
+        <f t="shared" si="9"/>
         <v>33.46</v>
       </c>
-      <c r="G11" s="5">
-        <f>BC11</f>
+      <c r="I11" s="5">
+        <f t="shared" si="10"/>
         <v>37.32</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="1">
-        <f>AG11</f>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:O13" si="24">AI11</f>
         <v>0.3</v>
       </c>
-      <c r="J11" s="1">
-        <f>AH11</f>
+      <c r="L11" s="1">
+        <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K11" s="1">
-        <f>AI11</f>
+      <c r="M11" s="1">
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="L11" s="1">
-        <f>AJ11</f>
+      <c r="N11" s="1">
+        <f t="shared" si="24"/>
         <v>84.82</v>
       </c>
-      <c r="M11" s="1">
-        <f>AK11</f>
+      <c r="O11" s="1">
+        <f t="shared" si="24"/>
         <v>14.56</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="12">
-        <f>AS11</f>
+      <c r="S11" s="12">
+        <f t="shared" si="2"/>
         <v>99.623999999999995</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="1">
-        <f>AO11</f>
+      <c r="T11" s="12"/>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:V13" si="25">AQ11</f>
         <v>41.6</v>
       </c>
-      <c r="T11" s="1">
-        <f>AP11</f>
+      <c r="V11" s="1">
+        <f t="shared" si="25"/>
         <v>58.03</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="5"/>
-      <c r="X11" t="s">
+      <c r="W11" s="1"/>
+      <c r="X11" s="5"/>
+      <c r="Z11" t="s">
         <v>55</v>
       </c>
-      <c r="Y11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>20.78</v>
       </c>
-      <c r="Z11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>27.43</v>
       </c>
-      <c r="AA11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>26.81</v>
       </c>
-      <c r="AB11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>29.01</v>
       </c>
-      <c r="AC11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>30.39</v>
       </c>
-      <c r="AD11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>31.72</v>
       </c>
-      <c r="AE11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>33.67</v>
       </c>
-      <c r="AF11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>37.32</v>
       </c>
-      <c r="AG11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="AH11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="AJ11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>84.82</v>
       </c>
-      <c r="AK11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>14.56</v>
       </c>
-      <c r="AL11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AN11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>41.6</v>
       </c>
-      <c r="AP11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>58.03</v>
       </c>
-      <c r="AQ11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AS11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>99.623999999999995</v>
       </c>
-      <c r="AT11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>29.66</v>
       </c>
-      <c r="AU11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>30.68</v>
       </c>
-      <c r="AV11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>32.270000000000003</v>
       </c>
-      <c r="AW11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>33.46</v>
       </c>
-      <c r="AX11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>22.31</v>
       </c>
-      <c r="AY11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>25.81</v>
       </c>
-      <c r="AZ11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>27.26</v>
       </c>
-      <c r="BA11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>28.87</v>
       </c>
-      <c r="BB11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>31.07</v>
       </c>
-      <c r="BC11">
-        <f>VLOOKUP($X11,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE11">
+        <f>VLOOKUP($Z11,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>37.32</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="12">
-        <f>Y12</f>
+      <c r="B12" s="24">
+        <f t="shared" si="3"/>
         <v>16.2</v>
       </c>
-      <c r="C12" s="1">
-        <f>Z12</f>
+      <c r="C12" s="24">
+        <f t="shared" si="4"/>
         <v>18.61</v>
       </c>
-      <c r="D12" s="1">
-        <f>AC12</f>
+      <c r="D12" s="12">
+        <f t="shared" si="5"/>
+        <v>18.03</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="6"/>
         <v>22.87</v>
       </c>
-      <c r="E12" s="1">
-        <f>AU12</f>
+      <c r="F12" s="5">
+        <f t="shared" si="7"/>
+        <v>26.21</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="8"/>
         <v>23.3</v>
       </c>
-      <c r="F12" s="1">
-        <f>AW12</f>
+      <c r="H12" s="1">
+        <f t="shared" si="9"/>
         <v>29.32</v>
       </c>
-      <c r="G12" s="5">
-        <f>BC12</f>
+      <c r="I12" s="5">
+        <f t="shared" si="10"/>
         <v>38.450000000000003</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="1">
-        <f>AG12</f>
+      <c r="K12" s="1">
+        <f t="shared" si="24"/>
         <v>0.19</v>
       </c>
-      <c r="J12" s="1">
-        <f>AH12</f>
+      <c r="L12" s="1">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="K12" s="1">
-        <f>AI12</f>
+      <c r="M12" s="1">
+        <f t="shared" si="24"/>
         <v>31.47</v>
       </c>
-      <c r="L12" s="1">
-        <f>AJ12</f>
+      <c r="N12" s="1">
+        <f t="shared" si="24"/>
         <v>66.3</v>
       </c>
-      <c r="M12" s="1">
-        <f>AK12</f>
+      <c r="O12" s="1">
+        <f t="shared" si="24"/>
         <v>1.04</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" s="12">
-        <f>AS12</f>
+      <c r="S12" s="12">
+        <f t="shared" si="2"/>
         <v>98.81</v>
       </c>
-      <c r="R12" s="12">
-        <f>AN12</f>
+      <c r="T12" s="12">
+        <f>AP12</f>
         <v>13.12</v>
       </c>
-      <c r="S12" s="1">
-        <f>AO12</f>
+      <c r="U12" s="1">
+        <f t="shared" si="25"/>
         <v>78.86</v>
       </c>
-      <c r="T12" s="1">
-        <f>AP12</f>
+      <c r="V12" s="1">
+        <f t="shared" si="25"/>
         <v>6.83</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="5"/>
-      <c r="X12" t="s">
+      <c r="W12" s="1"/>
+      <c r="X12" s="5"/>
+      <c r="Z12" t="s">
         <v>66</v>
       </c>
-      <c r="Y12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>16.2</v>
       </c>
-      <c r="Z12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>18.61</v>
       </c>
-      <c r="AA12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>12.49</v>
       </c>
-      <c r="AB12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>18.03</v>
       </c>
-      <c r="AC12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>22.87</v>
       </c>
-      <c r="AD12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>26.21</v>
       </c>
-      <c r="AE12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>30.74</v>
       </c>
-      <c r="AF12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>38.450000000000003</v>
       </c>
-      <c r="AG12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>0.19</v>
       </c>
-      <c r="AH12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AI12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>31.47</v>
       </c>
-      <c r="AJ12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>66.3</v>
       </c>
-      <c r="AK12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>1.04</v>
       </c>
-      <c r="AL12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AN12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>13.12</v>
       </c>
-      <c r="AO12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+      <c r="AQ12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>78.86</v>
       </c>
-      <c r="AP12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>6.83</v>
       </c>
-      <c r="AQ12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AS12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>98.81</v>
       </c>
-      <c r="AT12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>21.78</v>
       </c>
-      <c r="AU12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>23.3</v>
       </c>
-      <c r="AV12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>25.96</v>
       </c>
-      <c r="AW12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>29.32</v>
       </c>
-      <c r="AX12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>8.11</v>
       </c>
-      <c r="AY12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>13.34</v>
       </c>
-      <c r="AZ12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>17.98</v>
       </c>
-      <c r="BA12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="BB12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>26.82</v>
       </c>
-      <c r="BC12">
-        <f>VLOOKUP($X12,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="11">
-        <f>Y13</f>
+      <c r="B13" s="23">
+        <f t="shared" si="3"/>
         <v>20.65</v>
       </c>
-      <c r="C13" s="3">
-        <f>Z13</f>
+      <c r="C13" s="23">
+        <f t="shared" si="4"/>
         <v>23.72</v>
       </c>
-      <c r="D13" s="3">
-        <f>AC13</f>
+      <c r="D13" s="11">
+        <f t="shared" si="5"/>
+        <v>24.64</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="6"/>
         <v>30.97</v>
       </c>
-      <c r="E13" s="3">
-        <f>AU13</f>
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>35.21</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="8"/>
         <v>34.01</v>
       </c>
-      <c r="F13" s="3">
-        <f>AW13</f>
+      <c r="H13" s="3">
+        <f t="shared" si="9"/>
         <v>43.03</v>
       </c>
-      <c r="G13" s="4">
-        <f>BC13</f>
+      <c r="I13" s="4">
+        <f t="shared" si="10"/>
         <v>50.48</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="J13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="3">
-        <f>AG13</f>
+      <c r="K13" s="3">
+        <f t="shared" si="24"/>
         <v>0.92</v>
       </c>
-      <c r="J13" s="3">
-        <f>AH13</f>
+      <c r="L13" s="3">
+        <f t="shared" si="24"/>
         <v>1.87</v>
       </c>
-      <c r="K13" s="3">
-        <f>AI13</f>
+      <c r="M13" s="3">
+        <f t="shared" si="24"/>
         <v>29.56</v>
       </c>
-      <c r="L13" s="3">
-        <f>AJ13</f>
+      <c r="N13" s="3">
+        <f t="shared" si="24"/>
         <v>52.01</v>
       </c>
-      <c r="M13" s="3">
-        <f>AK13</f>
+      <c r="O13" s="3">
+        <f t="shared" si="24"/>
         <v>15.17</v>
       </c>
-      <c r="N13" s="3">
-        <f>AL13</f>
+      <c r="P13" s="3">
+        <f>AN13</f>
         <v>0.46</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="15" t="s">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="S13" s="11">
+        <f t="shared" si="2"/>
+        <v>97.212999999999994</v>
+      </c>
+      <c r="T13" s="11">
+        <f>AP13</f>
+        <v>5.45</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="25"/>
+        <v>38.840000000000003</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="25"/>
+        <v>48.72</v>
+      </c>
+      <c r="W13" s="3">
         <f>AS13</f>
+        <v>4.2</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Z13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>20.65</v>
+      </c>
+      <c r="AB13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>23.72</v>
+      </c>
+      <c r="AC13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>14.68</v>
+      </c>
+      <c r="AD13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>24.64</v>
+      </c>
+      <c r="AE13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>30.97</v>
+      </c>
+      <c r="AF13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>35.21</v>
+      </c>
+      <c r="AG13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>44.28</v>
+      </c>
+      <c r="AH13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>50.48</v>
+      </c>
+      <c r="AI13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>0.92</v>
+      </c>
+      <c r="AJ13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>1.87</v>
+      </c>
+      <c r="AK13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+        <v>29.56</v>
+      </c>
+      <c r="AL13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>52.01</v>
+      </c>
+      <c r="AM13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>15.17</v>
+      </c>
+      <c r="AN13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0.46</v>
+      </c>
+      <c r="AO13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>5.45</v>
+      </c>
+      <c r="AQ13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>38.840000000000003</v>
+      </c>
+      <c r="AR13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>48.72</v>
+      </c>
+      <c r="AS13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AT13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>97.212999999999994</v>
       </c>
-      <c r="R13" s="11">
-        <f>AN13</f>
-        <v>5.45</v>
-      </c>
-      <c r="S13" s="3">
-        <f>AO13</f>
-        <v>38.840000000000003</v>
-      </c>
-      <c r="T13" s="3">
-        <f>AP13</f>
-        <v>48.72</v>
-      </c>
-      <c r="U13" s="3">
-        <f>AQ13</f>
-        <v>4.2</v>
-      </c>
-      <c r="V13" s="4"/>
-      <c r="X13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>20.65</v>
-      </c>
-      <c r="Z13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>23.72</v>
-      </c>
-      <c r="AA13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>14.68</v>
-      </c>
-      <c r="AB13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>24.64</v>
-      </c>
-      <c r="AC13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>30.97</v>
-      </c>
-      <c r="AD13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>35.21</v>
-      </c>
-      <c r="AE13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>44.28</v>
-      </c>
-      <c r="AF13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AV13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>29.82</v>
+      </c>
+      <c r="AW13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>34.01</v>
+      </c>
+      <c r="AX13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>39.04</v>
+      </c>
+      <c r="AY13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>43.03</v>
+      </c>
+      <c r="AZ13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>7.53</v>
+      </c>
+      <c r="BA13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>13.4</v>
+      </c>
+      <c r="BB13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>20.67</v>
+      </c>
+      <c r="BC13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>27.34</v>
+      </c>
+      <c r="BD13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>35.17</v>
+      </c>
+      <c r="BE13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>50.48</v>
       </c>
-      <c r="AG13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>0.92</v>
-      </c>
-      <c r="AH13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>1.87</v>
-      </c>
-      <c r="AI13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>29.56</v>
-      </c>
-      <c r="AJ13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>52.01</v>
-      </c>
-      <c r="AK13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>15.17</v>
-      </c>
-      <c r="AL13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0.46</v>
-      </c>
-      <c r="AM13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>5.45</v>
-      </c>
-      <c r="AO13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>38.840000000000003</v>
-      </c>
-      <c r="AP13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>48.72</v>
-      </c>
-      <c r="AQ13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>4.2</v>
-      </c>
-      <c r="AR13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>97.212999999999994</v>
-      </c>
-      <c r="AT13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>29.82</v>
-      </c>
-      <c r="AU13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>34.01</v>
-      </c>
-      <c r="AV13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>39.04</v>
-      </c>
-      <c r="AW13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>43.03</v>
-      </c>
-      <c r="AX13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>7.53</v>
-      </c>
-      <c r="AY13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>13.4</v>
-      </c>
-      <c r="AZ13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>20.67</v>
-      </c>
-      <c r="BA13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>27.34</v>
-      </c>
-      <c r="BB13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>35.17</v>
-      </c>
-      <c r="BC13">
-        <f>VLOOKUP($X13,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>50.48</v>
-      </c>
     </row>
-    <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="13">
-        <f>Y14</f>
+      <c r="B14" s="25">
+        <f t="shared" si="3"/>
         <v>21.79</v>
       </c>
-      <c r="C14" s="6">
-        <f>Z14</f>
+      <c r="C14" s="25">
+        <f t="shared" si="4"/>
         <v>29.8</v>
       </c>
-      <c r="D14" s="6">
-        <f>AC14</f>
+      <c r="D14" s="13">
+        <f t="shared" si="5"/>
+        <v>31.78</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="6"/>
         <v>33.57</v>
       </c>
-      <c r="E14" s="6">
-        <f>AU14</f>
+      <c r="F14" s="7">
+        <f t="shared" si="7"/>
+        <v>35.39</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="8"/>
         <v>33.96</v>
       </c>
-      <c r="F14" s="6">
-        <f>AW14</f>
+      <c r="H14" s="6">
+        <f t="shared" si="9"/>
         <v>36.979999999999997</v>
       </c>
-      <c r="G14" s="7">
-        <f>BC14</f>
+      <c r="I14" s="7">
+        <f t="shared" si="10"/>
         <v>41.49</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="J14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="6">
-        <f t="shared" si="0"/>
+      <c r="K14" s="6">
+        <f t="shared" si="11"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="J14" s="6">
-        <f t="shared" si="1"/>
+      <c r="L14" s="6">
+        <f t="shared" si="12"/>
         <v>0.13</v>
       </c>
-      <c r="K14" s="6">
+      <c r="M14" s="6">
+        <f t="shared" si="13"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="14"/>
+        <v>50.52</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="15"/>
+        <v>46.94</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" s="13">
         <f t="shared" si="2"/>
+        <v>99.725999999999999</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="U14" s="6">
+        <f t="shared" si="19"/>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="V14" s="6">
+        <f>AR14</f>
+        <v>90.69</v>
+      </c>
+      <c r="W14" s="6"/>
+      <c r="X14" s="7"/>
+      <c r="Z14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>21.79</v>
+      </c>
+      <c r="AB14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>29.8</v>
+      </c>
+      <c r="AC14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>29.21</v>
+      </c>
+      <c r="AD14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>31.78</v>
+      </c>
+      <c r="AE14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>33.57</v>
+      </c>
+      <c r="AF14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>35.39</v>
+      </c>
+      <c r="AG14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>38.83</v>
+      </c>
+      <c r="AH14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>41.49</v>
+      </c>
+      <c r="AI14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AJ14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AK14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>2.2599999999999998</v>
       </c>
-      <c r="L14" s="6">
-        <f t="shared" si="3"/>
+      <c r="AL14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>50.52</v>
       </c>
-      <c r="M14" s="6">
-        <f t="shared" si="4"/>
+      <c r="AM14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>46.94</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="13">
-        <f>AS14</f>
+      <c r="AN14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="AR14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>90.69</v>
+      </c>
+      <c r="AS14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>99.725999999999999</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="6">
-        <f t="shared" si="8"/>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="T14" s="6">
-        <f>AP14</f>
-        <v>90.69</v>
-      </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="7"/>
-      <c r="X14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>21.79</v>
-      </c>
-      <c r="Z14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>29.8</v>
-      </c>
-      <c r="AA14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>29.21</v>
-      </c>
-      <c r="AB14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>31.78</v>
-      </c>
-      <c r="AC14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>33.57</v>
-      </c>
-      <c r="AD14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>35.39</v>
-      </c>
-      <c r="AE14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>38.83</v>
-      </c>
-      <c r="AF14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AV14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AW14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>33.96</v>
+      </c>
+      <c r="AX14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>35.5</v>
+      </c>
+      <c r="AY14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>36.979999999999997</v>
+      </c>
+      <c r="AZ14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>19.13</v>
+      </c>
+      <c r="BA14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>26.72</v>
+      </c>
+      <c r="BB14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>29.57</v>
+      </c>
+      <c r="BC14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>32.21</v>
+      </c>
+      <c r="BD14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>36.020000000000003</v>
+      </c>
+      <c r="BE14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>41.49</v>
       </c>
-      <c r="AG14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>0.13</v>
-      </c>
-      <c r="AI14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AJ14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>50.52</v>
-      </c>
-      <c r="AK14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>46.94</v>
-      </c>
-      <c r="AL14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="AP14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>90.69</v>
-      </c>
-      <c r="AQ14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>99.725999999999999</v>
-      </c>
-      <c r="AT14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="AU14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>33.96</v>
-      </c>
-      <c r="AV14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>35.5</v>
-      </c>
-      <c r="AW14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>36.979999999999997</v>
-      </c>
-      <c r="AX14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>19.13</v>
-      </c>
-      <c r="AY14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>26.72</v>
-      </c>
-      <c r="AZ14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>29.57</v>
-      </c>
-      <c r="BA14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>32.21</v>
-      </c>
-      <c r="BB14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>36.020000000000003</v>
-      </c>
-      <c r="BC14">
-        <f>VLOOKUP($X14,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>41.49</v>
-      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="12">
-        <f>Y15</f>
+      <c r="B15" s="24">
+        <f t="shared" si="3"/>
         <v>14.09</v>
       </c>
-      <c r="C15" s="1">
-        <f>Z15</f>
+      <c r="C15" s="24">
+        <f t="shared" si="4"/>
         <v>13.67</v>
       </c>
-      <c r="D15" s="1">
-        <f>AC15</f>
+      <c r="D15" s="12">
+        <f t="shared" si="5"/>
+        <v>14.27</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="6"/>
         <v>17.649999999999999</v>
       </c>
-      <c r="E15" s="1">
-        <f>AU15</f>
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="8"/>
         <v>17.420000000000002</v>
       </c>
-      <c r="F15" s="1">
-        <f>AW15</f>
+      <c r="H15" s="1">
+        <f t="shared" si="9"/>
         <v>21.58</v>
       </c>
-      <c r="G15" s="5">
-        <f>BC15</f>
+      <c r="I15" s="5">
+        <f t="shared" si="10"/>
         <v>27.5</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="J15" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
+      <c r="K15" s="1">
+        <f t="shared" si="11"/>
         <v>31.03</v>
       </c>
-      <c r="J15" s="1">
-        <f t="shared" si="1"/>
+      <c r="L15" s="1">
+        <f t="shared" si="12"/>
         <v>6.69</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
+        <f t="shared" si="13"/>
+        <v>41.55</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="14"/>
+        <v>20.73</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" s="12">
         <f t="shared" si="2"/>
+        <v>62.280999999999999</v>
+      </c>
+      <c r="T15" s="12">
+        <f t="shared" si="18"/>
+        <v>18.690000000000001</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="19"/>
+        <v>43.59</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="5"/>
+      <c r="Z15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>14.09</v>
+      </c>
+      <c r="AB15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>13.67</v>
+      </c>
+      <c r="AC15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>10.91</v>
+      </c>
+      <c r="AD15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>14.27</v>
+      </c>
+      <c r="AE15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="AF15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AG15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>22.84</v>
+      </c>
+      <c r="AH15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>27.5</v>
+      </c>
+      <c r="AI15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>31.03</v>
+      </c>
+      <c r="AJ15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>6.69</v>
+      </c>
+      <c r="AK15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>41.55</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="3"/>
+      <c r="AL15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>20.73</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="12">
-        <f>AS15</f>
+      <c r="AM15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>18.690000000000001</v>
+      </c>
+      <c r="AQ15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>43.59</v>
+      </c>
+      <c r="AR15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>62.280999999999999</v>
       </c>
-      <c r="R15" s="12">
-        <f t="shared" si="7"/>
-        <v>18.690000000000001</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="8"/>
-        <v>43.59</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="5"/>
-      <c r="X15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>14.09</v>
-      </c>
-      <c r="Z15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>13.67</v>
-      </c>
-      <c r="AA15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>10.91</v>
-      </c>
-      <c r="AB15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>14.27</v>
-      </c>
-      <c r="AC15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>17.649999999999999</v>
-      </c>
-      <c r="AD15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="AE15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>22.84</v>
-      </c>
-      <c r="AF15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AV15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>15.8</v>
+      </c>
+      <c r="AW15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>17.420000000000002</v>
+      </c>
+      <c r="AX15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="AY15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>21.58</v>
+      </c>
+      <c r="AZ15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>6.47</v>
+      </c>
+      <c r="BA15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>9.83</v>
+      </c>
+      <c r="BB15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>12.81</v>
+      </c>
+      <c r="BC15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>16.16</v>
+      </c>
+      <c r="BD15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>19.63</v>
+      </c>
+      <c r="BE15">
+        <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>27.5</v>
       </c>
-      <c r="AG15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>31.03</v>
-      </c>
-      <c r="AH15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>6.69</v>
-      </c>
-      <c r="AI15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>41.55</v>
-      </c>
-      <c r="AJ15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>20.73</v>
-      </c>
-      <c r="AK15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>18.690000000000001</v>
-      </c>
-      <c r="AO15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>43.59</v>
-      </c>
-      <c r="AP15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>62.280999999999999</v>
-      </c>
-      <c r="AT15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>15.8</v>
-      </c>
-      <c r="AU15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>17.420000000000002</v>
-      </c>
-      <c r="AV15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>19.760000000000002</v>
-      </c>
-      <c r="AW15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>21.58</v>
-      </c>
-      <c r="AX15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>6.47</v>
-      </c>
-      <c r="AY15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>9.83</v>
-      </c>
-      <c r="AZ15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>12.81</v>
-      </c>
-      <c r="BA15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>16.16</v>
-      </c>
-      <c r="BB15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>19.63</v>
-      </c>
-      <c r="BC15">
-        <f>VLOOKUP($X15,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>27.5</v>
-      </c>
     </row>
-    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="13">
-        <f>Y16</f>
+      <c r="B16" s="25">
+        <f t="shared" si="3"/>
         <v>14.58</v>
       </c>
-      <c r="C16" s="6">
-        <f>Z16</f>
+      <c r="C16" s="25">
+        <f t="shared" si="4"/>
         <v>23.59</v>
       </c>
-      <c r="D16" s="6">
-        <f>AC16</f>
+      <c r="D16" s="13">
+        <f t="shared" si="5"/>
+        <v>25.53</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="6"/>
         <v>27.77</v>
       </c>
-      <c r="E16" s="6">
-        <f>AU16</f>
+      <c r="F16" s="7">
+        <f t="shared" si="7"/>
+        <v>30.15</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="8"/>
         <v>27.84</v>
       </c>
-      <c r="F16" s="6">
-        <f>AW16</f>
+      <c r="H16" s="6">
+        <f t="shared" si="9"/>
         <v>31.76</v>
       </c>
-      <c r="G16" s="7">
-        <f>BC16</f>
+      <c r="I16" s="7">
+        <f t="shared" si="10"/>
         <v>36.28</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="J16" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="I16" s="6">
-        <f>AG16</f>
-        <v>39.619999999999997</v>
-      </c>
-      <c r="J16" s="6">
-        <f>AH16</f>
-        <v>4.49</v>
       </c>
       <c r="K16" s="6">
         <f>AI16</f>
-        <v>11.1</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="L16" s="6">
         <f>AJ16</f>
-        <v>42.44</v>
+        <v>4.49</v>
       </c>
       <c r="M16" s="6">
         <f>AK16</f>
+        <v>11.1</v>
+      </c>
+      <c r="N16" s="6">
+        <f>AL16</f>
+        <v>42.44</v>
+      </c>
+      <c r="O16" s="6">
+        <f>AM16</f>
         <v>2.35</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="Q16" s="13">
-        <f>AS16</f>
+      <c r="S16" s="13">
+        <f t="shared" si="2"/>
         <v>55.887999999999998</v>
       </c>
-      <c r="R16" s="13">
-        <f>AN16</f>
+      <c r="T16" s="13">
+        <f>AP16</f>
         <v>1.35</v>
       </c>
-      <c r="S16" s="6">
-        <f>AO16</f>
+      <c r="U16" s="6">
+        <f>AQ16</f>
         <v>39.56</v>
       </c>
-      <c r="T16" s="6">
-        <f>AP16</f>
+      <c r="V16" s="6">
+        <f>AR16</f>
         <v>14.98</v>
       </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="7"/>
-      <c r="X16" t="s">
+      <c r="W16" s="6"/>
+      <c r="X16" s="7"/>
+      <c r="Z16" t="s">
         <v>50</v>
       </c>
-      <c r="Y16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>14.58</v>
       </c>
-      <c r="Z16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>23.59</v>
       </c>
-      <c r="AA16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>20.18</v>
       </c>
-      <c r="AB16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>25.53</v>
       </c>
-      <c r="AC16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>27.77</v>
       </c>
-      <c r="AD16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>30.15</v>
       </c>
-      <c r="AE16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>32.46</v>
       </c>
-      <c r="AF16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>36.28</v>
       </c>
-      <c r="AG16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>39.619999999999997</v>
       </c>
-      <c r="AH16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>4.49</v>
       </c>
-      <c r="AI16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>11.1</v>
       </c>
-      <c r="AJ16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>42.44</v>
       </c>
-      <c r="AK16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>2.35</v>
       </c>
-      <c r="AL16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AN16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>1.35</v>
       </c>
-      <c r="AO16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+      <c r="AQ16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>39.56</v>
       </c>
-      <c r="AP16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>14.98</v>
       </c>
-      <c r="AQ16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AS16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>55.887999999999998</v>
       </c>
-      <c r="AT16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>25.37</v>
       </c>
-      <c r="AU16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>27.84</v>
       </c>
-      <c r="AV16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>30.26</v>
       </c>
-      <c r="AW16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>31.76</v>
       </c>
-      <c r="AX16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>7.5</v>
       </c>
-      <c r="AY16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>16.93</v>
       </c>
-      <c r="AZ16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>22.49</v>
       </c>
-      <c r="BA16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>26.17</v>
       </c>
-      <c r="BB16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>29.71</v>
       </c>
-      <c r="BC16">
-        <f>VLOOKUP($X16,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE16">
+        <f>VLOOKUP($Z16,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>36.28</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="12">
-        <f t="shared" ref="B17" si="12">Y17</f>
+        <v>103</v>
+      </c>
+      <c r="B17" s="24">
+        <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17" si="13">Z17</f>
+      <c r="C17" s="24">
+        <f t="shared" si="4"/>
         <v>13.3</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" ref="D17" si="14">AC17</f>
+      <c r="D17" s="12">
+        <f t="shared" si="5"/>
+        <v>16.55</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="6"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="E17" s="1">
-        <f>AU17</f>
+      <c r="F17" s="5">
+        <f t="shared" si="7"/>
+        <v>20.77</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="8"/>
         <v>20.83</v>
       </c>
-      <c r="F17" s="1">
-        <f>AW17</f>
+      <c r="H17" s="1">
+        <f t="shared" si="9"/>
         <v>26.37</v>
       </c>
-      <c r="G17" s="5">
-        <f>BC17</f>
+      <c r="I17" s="5">
+        <f t="shared" si="10"/>
         <v>36.36</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" ref="I17" si="15">AG17</f>
+      <c r="J17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ref="K17" si="26">AI17</f>
         <v>19.920000000000002</v>
       </c>
-      <c r="J17" s="1">
-        <f t="shared" ref="J17" si="16">AH17</f>
+      <c r="L17" s="1">
+        <f t="shared" ref="L17" si="27">AJ17</f>
         <v>8.32</v>
       </c>
-      <c r="K17" s="1">
-        <f t="shared" ref="K17" si="17">AI17</f>
+      <c r="M17" s="1">
+        <f t="shared" ref="M17" si="28">AK17</f>
         <v>52.54</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" ref="L17" si="18">AJ17</f>
+      <c r="N17" s="1">
+        <f t="shared" ref="N17" si="29">AL17</f>
         <v>19.12</v>
       </c>
-      <c r="M17" s="1">
-        <f t="shared" ref="M17" si="19">AK17</f>
+      <c r="O17" s="1">
+        <f t="shared" ref="O17" si="30">AM17</f>
         <v>0.1</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="12">
-        <f>AS17</f>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="12">
+        <f t="shared" si="2"/>
         <v>71.751999999999995</v>
       </c>
-      <c r="R17" s="12">
-        <f t="shared" ref="R17" si="20">AN17</f>
+      <c r="T17" s="12">
+        <f t="shared" ref="T17" si="31">AP17</f>
         <v>8.65</v>
       </c>
-      <c r="S17" s="1">
-        <f t="shared" ref="S17" si="21">AO17</f>
+      <c r="U17" s="1">
+        <f t="shared" ref="U17" si="32">AQ17</f>
         <v>62.06</v>
       </c>
-      <c r="T17" s="1">
-        <f t="shared" ref="T17" si="22">AP17</f>
+      <c r="V17" s="1">
+        <f t="shared" ref="V17" si="33">AR17</f>
         <v>1.04</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="5"/>
-      <c r="X17" t="s">
+      <c r="W17" s="1"/>
+      <c r="X17" s="5"/>
+      <c r="Z17" t="s">
         <v>70</v>
       </c>
-      <c r="Y17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>10.7</v>
       </c>
-      <c r="Z17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>13.3</v>
       </c>
-      <c r="AA17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>13.49</v>
       </c>
-      <c r="AB17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>16.55</v>
       </c>
-      <c r="AC17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="AD17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>20.77</v>
       </c>
-      <c r="AE17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>26.27</v>
       </c>
-      <c r="AF17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>36.36</v>
       </c>
-      <c r="AG17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>19.920000000000002</v>
       </c>
-      <c r="AH17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>8.32</v>
       </c>
-      <c r="AI17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>52.54</v>
       </c>
-      <c r="AJ17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>19.12</v>
       </c>
-      <c r="AK17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="AL17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AN17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>8.65</v>
       </c>
-      <c r="AO17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+      <c r="AQ17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>62.06</v>
       </c>
-      <c r="AP17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>1.04</v>
       </c>
-      <c r="AQ17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AS17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>71.751999999999995</v>
       </c>
-      <c r="AT17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>18.77</v>
       </c>
-      <c r="AU17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>20.83</v>
       </c>
-      <c r="AV17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>23.67</v>
       </c>
-      <c r="AW17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>26.37</v>
       </c>
-      <c r="AX17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>6.41</v>
       </c>
-      <c r="AY17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>9.86</v>
       </c>
-      <c r="AZ17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>12.56</v>
       </c>
-      <c r="BA17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>15.28</v>
       </c>
-      <c r="BB17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>19.420000000000002</v>
       </c>
-      <c r="BC17">
-        <f>VLOOKUP($X17,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE17">
+        <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>36.36</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="13">
-        <f>Y18</f>
+      <c r="B18" s="25">
+        <f t="shared" si="3"/>
         <v>6.86</v>
       </c>
-      <c r="C18" s="6">
-        <f>Z18</f>
+      <c r="C18" s="25">
+        <f t="shared" si="4"/>
         <v>6.41</v>
       </c>
-      <c r="D18" s="6">
-        <f>AC18</f>
+      <c r="D18" s="13">
+        <f t="shared" si="5"/>
+        <v>7.47</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="6"/>
         <v>8.48</v>
       </c>
-      <c r="E18" s="6">
-        <f>AU18</f>
+      <c r="F18" s="7">
+        <f t="shared" si="7"/>
+        <v>9.86</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="8"/>
         <v>9.6199999999999992</v>
       </c>
-      <c r="F18" s="6">
-        <f>AW18</f>
+      <c r="H18" s="6">
+        <f t="shared" si="9"/>
         <v>15.84</v>
       </c>
-      <c r="G18" s="7">
-        <f>BC18</f>
+      <c r="I18" s="7">
+        <f t="shared" si="10"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="J18" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
+      <c r="K18" s="6">
+        <f t="shared" si="11"/>
         <v>26.81</v>
       </c>
-      <c r="J18" s="6">
-        <f t="shared" si="1"/>
+      <c r="L18" s="6">
+        <f t="shared" si="12"/>
         <v>33.119999999999997</v>
       </c>
-      <c r="K18" s="6">
+      <c r="M18" s="6">
+        <f t="shared" si="13"/>
+        <v>40.07</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="S18" s="13">
         <f t="shared" si="2"/>
         <v>40.07</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" s="13">
-        <f>AS18</f>
+      <c r="T18" s="13">
+        <f t="shared" si="18"/>
+        <v>39.99</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" si="19"/>
+        <v>0.08</v>
+      </c>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="7"/>
+      <c r="Z18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>6.86</v>
+      </c>
+      <c r="AB18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>6.41</v>
+      </c>
+      <c r="AC18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>6.38</v>
+      </c>
+      <c r="AD18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>7.47</v>
+      </c>
+      <c r="AE18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>8.48</v>
+      </c>
+      <c r="AF18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>9.86</v>
+      </c>
+      <c r="AG18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>12.77</v>
+      </c>
+      <c r="AH18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AI18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>26.81</v>
+      </c>
+      <c r="AJ18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>33.119999999999997</v>
+      </c>
+      <c r="AK18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>40.07</v>
       </c>
-      <c r="R18" s="13">
-        <f t="shared" si="7"/>
+      <c r="AL18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>39.99</v>
       </c>
-      <c r="S18" s="6">
-        <f t="shared" si="8"/>
+      <c r="AQ18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>0.08</v>
       </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="7"/>
-      <c r="X18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>6.86</v>
-      </c>
-      <c r="Z18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>6.41</v>
-      </c>
-      <c r="AA18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>6.38</v>
-      </c>
-      <c r="AB18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>7.47</v>
-      </c>
-      <c r="AC18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>8.48</v>
-      </c>
-      <c r="AD18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>9.86</v>
-      </c>
-      <c r="AE18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>12.77</v>
-      </c>
-      <c r="AF18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AR18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+        <v>40.07</v>
+      </c>
+      <c r="AV18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="AW18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="AX18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>11.85</v>
+      </c>
+      <c r="AY18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>15.84</v>
+      </c>
+      <c r="AZ18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>5.24</v>
+      </c>
+      <c r="BA18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>5.76</v>
+      </c>
+      <c r="BB18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>6.4</v>
+      </c>
+      <c r="BC18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>7.38</v>
+      </c>
+      <c r="BD18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>9.68</v>
+      </c>
+      <c r="BE18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="AG18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>26.81</v>
-      </c>
-      <c r="AH18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>33.119999999999997</v>
-      </c>
-      <c r="AI18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>40.07</v>
-      </c>
-      <c r="AJ18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>39.99</v>
-      </c>
-      <c r="AO18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="AP18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>40.07</v>
-      </c>
-      <c r="AT18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="AU18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="AV18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>11.85</v>
-      </c>
-      <c r="AW18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>15.84</v>
-      </c>
-      <c r="AX18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>5.24</v>
-      </c>
-      <c r="AY18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>5.76</v>
-      </c>
-      <c r="AZ18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>6.4</v>
-      </c>
-      <c r="BA18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>7.38</v>
-      </c>
-      <c r="BB18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>9.68</v>
-      </c>
-      <c r="BC18">
-        <f>VLOOKUP($X18,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>16.899999999999999</v>
-      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="11">
-        <f>Y19</f>
+      <c r="B19" s="23">
+        <f t="shared" si="3"/>
         <v>7.74</v>
       </c>
-      <c r="C19" s="3">
-        <f>Z19</f>
+      <c r="C19" s="23">
+        <f t="shared" si="4"/>
         <v>6.62</v>
       </c>
-      <c r="D19" s="3">
-        <f>AC19</f>
+      <c r="D19" s="11">
+        <f t="shared" si="5"/>
+        <v>7.6</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="6"/>
         <v>8.19</v>
       </c>
-      <c r="E19" s="3">
-        <f>AU19</f>
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="8"/>
         <v>7.62</v>
       </c>
-      <c r="F19" s="3">
-        <f>AW19</f>
+      <c r="H19" s="3">
+        <f t="shared" si="9"/>
         <v>8.8699999999999992</v>
       </c>
-      <c r="G19" s="4">
-        <f>BC19</f>
+      <c r="I19" s="4">
+        <f t="shared" si="10"/>
         <v>14.54</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
+      <c r="K19" s="3">
+        <f t="shared" si="11"/>
         <v>43.86</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" si="1"/>
+      <c r="L19" s="3">
+        <f t="shared" si="12"/>
         <v>50.75</v>
       </c>
-      <c r="K19" s="3">
+      <c r="M19" s="3">
+        <f t="shared" si="13"/>
+        <v>5.39</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="11">
         <f t="shared" si="2"/>
         <v>5.39</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="11">
-        <f>AS19</f>
+      <c r="T19" s="11">
+        <f t="shared" si="18"/>
         <v>5.39</v>
       </c>
-      <c r="R19" s="11">
-        <f t="shared" si="7"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="4"/>
+      <c r="Z19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>7.74</v>
+      </c>
+      <c r="AB19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>6.62</v>
+      </c>
+      <c r="AC19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>6.52</v>
+      </c>
+      <c r="AD19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>7.6</v>
+      </c>
+      <c r="AE19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>8.19</v>
+      </c>
+      <c r="AF19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AG19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>9.77</v>
+      </c>
+      <c r="AH19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>14.54</v>
+      </c>
+      <c r="AI19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>43.86</v>
+      </c>
+      <c r="AJ19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>50.75</v>
+      </c>
+      <c r="AK19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>5.39</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="4"/>
-      <c r="X19" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>7.74</v>
-      </c>
-      <c r="Z19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>6.62</v>
-      </c>
-      <c r="AA19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>6.52</v>
-      </c>
-      <c r="AB19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>7.6</v>
-      </c>
-      <c r="AC19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>8.19</v>
-      </c>
-      <c r="AD19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AE19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>9.77</v>
-      </c>
-      <c r="AF19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AL19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>5.39</v>
+      </c>
+      <c r="AQ19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+        <v>5.39</v>
+      </c>
+      <c r="AV19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>7.38</v>
+      </c>
+      <c r="AW19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>7.62</v>
+      </c>
+      <c r="AX19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AY19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="AZ19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>5.24</v>
+      </c>
+      <c r="BA19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>5.87</v>
+      </c>
+      <c r="BB19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>6.54</v>
+      </c>
+      <c r="BC19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>7.36</v>
+      </c>
+      <c r="BD19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="BE19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>14.54</v>
       </c>
-      <c r="AG19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>43.86</v>
-      </c>
-      <c r="AH19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>50.75</v>
-      </c>
-      <c r="AI19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>5.39</v>
-      </c>
-      <c r="AJ19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>5.39</v>
-      </c>
-      <c r="AO19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>5.39</v>
-      </c>
-      <c r="AT19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>7.38</v>
-      </c>
-      <c r="AU19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>7.62</v>
-      </c>
-      <c r="AV19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="AW19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="AX19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>5.24</v>
-      </c>
-      <c r="AY19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>5.87</v>
-      </c>
-      <c r="AZ19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>6.54</v>
-      </c>
-      <c r="BA19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>7.36</v>
-      </c>
-      <c r="BB19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>8.5</v>
-      </c>
-      <c r="BC19">
-        <f>VLOOKUP($X19,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>14.54</v>
-      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="12">
-        <f>Y20</f>
+      <c r="B20" s="24">
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
-      <c r="C20" s="1">
-        <f>Z20</f>
+      <c r="C20" s="24">
+        <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="D20" s="1">
-        <f>AC20</f>
+      <c r="D20" s="12">
+        <f t="shared" si="5"/>
+        <v>6.45</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
         <v>7.35</v>
       </c>
-      <c r="E20" s="1">
-        <f>AU20</f>
+      <c r="F20" s="5">
+        <f t="shared" si="7"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="8"/>
         <v>7.82</v>
       </c>
-      <c r="F20" s="1">
-        <f>AW20</f>
+      <c r="H20" s="1">
+        <f t="shared" si="9"/>
         <v>19.89</v>
       </c>
-      <c r="G20" s="5">
-        <f>BC20</f>
+      <c r="I20" s="5">
+        <f t="shared" si="10"/>
         <v>12.89</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="J20" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="I20" s="1">
-        <f>AG20</f>
-        <v>27.71</v>
-      </c>
-      <c r="J20" s="1">
-        <f>AH20</f>
-        <v>58.94</v>
       </c>
       <c r="K20" s="1">
         <f>AI20</f>
+        <v>27.71</v>
+      </c>
+      <c r="L20" s="1">
+        <f>AJ20</f>
+        <v>58.94</v>
+      </c>
+      <c r="M20" s="1">
+        <f>AK20</f>
         <v>13.36</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="16" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="Q20" s="12">
-        <f>AS20</f>
+      <c r="S20" s="12">
+        <f t="shared" si="2"/>
         <v>13.36</v>
       </c>
-      <c r="R20" s="12">
-        <f>AN20</f>
+      <c r="T20" s="12">
+        <f>AP20</f>
         <v>13.36</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="5"/>
-      <c r="X20" t="s">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="5"/>
+      <c r="Z20" t="s">
         <v>47</v>
       </c>
-      <c r="Y20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+      <c r="AA20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>7.4</v>
       </c>
-      <c r="Z20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>5.8</v>
       </c>
-      <c r="AA20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>5.7</v>
       </c>
-      <c r="AB20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>6.45</v>
       </c>
-      <c r="AC20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>7.35</v>
       </c>
-      <c r="AD20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="AE20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>11.44</v>
       </c>
-      <c r="AF20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>12.89</v>
       </c>
-      <c r="AG20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>27.71</v>
       </c>
-      <c r="AH20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>58.94</v>
       </c>
-      <c r="AI20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>13.36</v>
       </c>
-      <c r="AJ20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AL20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AM20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>13.36</v>
       </c>
-      <c r="AO20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="AQ20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AR20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="AS20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>13.36</v>
       </c>
-      <c r="AT20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>7.02</v>
       </c>
-      <c r="AU20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>7.82</v>
       </c>
-      <c r="AV20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>11.48</v>
       </c>
-      <c r="AW20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>19.89</v>
       </c>
-      <c r="AX20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>5.09</v>
       </c>
-      <c r="AY20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>5.33</v>
       </c>
-      <c r="AZ20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>5.71</v>
       </c>
-      <c r="BA20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>6.5</v>
       </c>
-      <c r="BB20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>8.5399999999999991</v>
       </c>
-      <c r="BC20">
-        <f>VLOOKUP($X20,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>12.89</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="13">
-        <f>Y21</f>
+      <c r="B21" s="25">
+        <f t="shared" si="3"/>
         <v>5.05</v>
       </c>
-      <c r="C21" s="6">
-        <f>Z21</f>
+      <c r="C21" s="25">
+        <f t="shared" si="4"/>
         <v>6.17</v>
       </c>
-      <c r="D21" s="6">
-        <f>AC21</f>
+      <c r="D21" s="13">
+        <f t="shared" si="5"/>
+        <v>6.51</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="6"/>
         <v>7.59</v>
       </c>
-      <c r="E21" s="6">
-        <f>AU21</f>
+      <c r="F21" s="7">
+        <f t="shared" si="7"/>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="8"/>
         <v>6.92</v>
       </c>
-      <c r="F21" s="6">
-        <f>AW21</f>
+      <c r="H21" s="6">
+        <f t="shared" si="9"/>
         <v>8.61</v>
       </c>
-      <c r="G21" s="7">
-        <f>BC21</f>
+      <c r="I21" s="7">
+        <f t="shared" si="10"/>
         <v>17.02</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
+      <c r="K21" s="6">
+        <f t="shared" si="11"/>
         <v>79.790000000000006</v>
       </c>
-      <c r="J21" s="6">
-        <f t="shared" si="1"/>
+      <c r="L21" s="6">
+        <f t="shared" si="12"/>
         <v>17.96</v>
       </c>
-      <c r="K21" s="6">
+      <c r="M21" s="6">
+        <f t="shared" si="13"/>
+        <v>2.25</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S21" s="13">
         <f t="shared" si="2"/>
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="T21" s="13">
+        <f t="shared" si="18"/>
+        <v>2.23</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="7"/>
+      <c r="Z21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>5.05</v>
+      </c>
+      <c r="AB21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>6.17</v>
+      </c>
+      <c r="AC21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>5.56</v>
+      </c>
+      <c r="AD21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>6.51</v>
+      </c>
+      <c r="AE21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>7.59</v>
+      </c>
+      <c r="AF21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="AG21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>11.98</v>
+      </c>
+      <c r="AH21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>17.02</v>
+      </c>
+      <c r="AI21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>79.790000000000006</v>
+      </c>
+      <c r="AJ21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>17.96</v>
+      </c>
+      <c r="AK21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>2.25</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" s="13">
-        <f>AS21</f>
+      <c r="AL21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>2.23</v>
+      </c>
+      <c r="AQ21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>0.02</v>
+      </c>
+      <c r="AR21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>2.2480000000000002</v>
       </c>
-      <c r="R21" s="13">
-        <f t="shared" si="7"/>
-        <v>2.23</v>
-      </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="7"/>
-      <c r="X21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
-        <v>5.05</v>
-      </c>
-      <c r="Z21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
-        <v>6.17</v>
-      </c>
-      <c r="AA21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>5.56</v>
-      </c>
-      <c r="AB21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>6.51</v>
-      </c>
-      <c r="AC21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>7.59</v>
-      </c>
-      <c r="AD21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="AE21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>11.98</v>
-      </c>
-      <c r="AF21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AV21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>6.72</v>
+      </c>
+      <c r="AW21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>6.92</v>
+      </c>
+      <c r="AX21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>7.6</v>
+      </c>
+      <c r="AY21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>8.61</v>
+      </c>
+      <c r="AZ21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>5.09</v>
+      </c>
+      <c r="BA21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>5.46</v>
+      </c>
+      <c r="BB21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>6.01</v>
+      </c>
+      <c r="BC21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>6.93</v>
+      </c>
+      <c r="BD21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>9.16</v>
+      </c>
+      <c r="BE21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>17.02</v>
       </c>
-      <c r="AG21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>79.790000000000006</v>
-      </c>
-      <c r="AH21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>17.96</v>
-      </c>
-      <c r="AI21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>2.25</v>
-      </c>
-      <c r="AJ21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>2.23</v>
-      </c>
-      <c r="AO21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0.02</v>
-      </c>
-      <c r="AP21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="AT21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>6.72</v>
-      </c>
-      <c r="AU21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>6.92</v>
-      </c>
-      <c r="AV21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>7.6</v>
-      </c>
-      <c r="AW21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>8.61</v>
-      </c>
-      <c r="AX21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>5.09</v>
-      </c>
-      <c r="AY21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>5.46</v>
-      </c>
-      <c r="AZ21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>6.01</v>
-      </c>
-      <c r="BA21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>6.93</v>
-      </c>
-      <c r="BB21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>9.16</v>
-      </c>
-      <c r="BC21">
-        <f>VLOOKUP($X21,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>17.02</v>
-      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="W22" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!Y$1,FALSE)</f>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="Z22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>width50</v>
       </c>
-      <c r="Y22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!Z$1,FALSE)</f>
+      <c r="AB22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>canopy50</v>
       </c>
-      <c r="Z22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AC22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>crown05</v>
       </c>
-      <c r="AA22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AD22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>crown25</v>
       </c>
-      <c r="AB22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AE22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>crown50</v>
       </c>
-      <c r="AC22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AF22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>crown75</v>
       </c>
-      <c r="AD22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AG22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>crown95</v>
       </c>
-      <c r="AE22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AH22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>crownmax</v>
       </c>
-      <c r="AF22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AI22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>strat00</v>
       </c>
-      <c r="AG22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AJ22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>strat02</v>
       </c>
-      <c r="AH22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AK22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>strat05</v>
       </c>
-      <c r="AI22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AL22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>strat15</v>
       </c>
-      <c r="AJ22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AM22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>strat30</v>
       </c>
-      <c r="AK22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+      <c r="AN22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>strat45</v>
       </c>
-      <c r="AL22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+      <c r="AO22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
         <v>strat60</v>
       </c>
-      <c r="AM22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+      <c r="AP22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>tree05</v>
       </c>
-      <c r="AN22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+      <c r="AQ22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>tree15</v>
       </c>
-      <c r="AO22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AR22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>tree30</v>
       </c>
-      <c r="AP22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+      <c r="AS22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
         <v>tree45</v>
       </c>
-      <c r="AQ22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+      <c r="AT22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
         <v>tree60</v>
       </c>
-      <c r="AR22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+      <c r="AU22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>strattree</v>
       </c>
-      <c r="AS22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AV22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>c10m</v>
       </c>
-      <c r="AT22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AW22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>c20m</v>
       </c>
-      <c r="AU22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AX22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>c50m</v>
       </c>
-      <c r="AV22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AY22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>c100m</v>
       </c>
-      <c r="AW22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AZ22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>ht05</v>
       </c>
-      <c r="AX22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="BA22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>ht25</v>
       </c>
-      <c r="AY22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="BB22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>ht50</v>
       </c>
-      <c r="AZ22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BC22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>ht75</v>
       </c>
-      <c r="BA22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BD22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>ht95</v>
       </c>
-      <c r="BB22" t="str">
-        <f>VLOOKUP($W22,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BE22" t="str">
+        <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>htmax</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="I22:N1048576 Q22:Q1048576 I1:O1">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="K22:P1048576 S22:S1048576 K1:Q1">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5846,7 +6151,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5857,8 +6162,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:G16">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="B15:I16">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5867,8 +6172,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:G21 B2:G9 B13:G14">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="B13:I14 B17:I21 B2:I9">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5878,7 +6183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10 B12:B21">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5887,8 +6192,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G10 C12:G21">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="C12:I21 C2:I10">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5897,8 +6202,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:G12 B10:G10">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="B10:I10 B12:I12">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5908,7 +6213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5917,8 +6222,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:G11">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="C11:I11">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5927,7 +6232,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:G11">
+  <conditionalFormatting sqref="B11:I11">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:X21">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5937,28 +6282,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="K2:Q21 S2:X21">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5966,27 +6291,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:V21">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:O21 Q2:V21">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6002,7 +6307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF53"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">

--- a/output/combsum.xlsx
+++ b/output/combsum.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\lidar\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B3721-E541-4DEF-B360-B336D37A98AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combsum" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">combsum!$A$1:$X$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">combsum!$A$1:$X$25</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
   <si>
     <t>site</t>
   </si>
@@ -423,29 +429,98 @@
     <t>xeric chaparral</t>
   </si>
   <si>
-    <t>Pinyon Pine Woodland, Arizona</t>
-  </si>
-  <si>
     <t>Ponderosa Pine Woodland, Arizona</t>
   </si>
   <si>
-    <t>Xeric Chaparral, California</t>
-  </si>
-  <si>
     <t>Mesic Chaparral, California</t>
   </si>
   <si>
     <t>Broadleaf Evergreen Forest, California</t>
+  </si>
+  <si>
+    <t>Pinyon-Juniper Woodland, Arizona</t>
+  </si>
+  <si>
+    <t>Sitka Spruce Forest, Olympic National Park, Washington</t>
+  </si>
+  <si>
+    <t>White Pine Forest, Hartwick State Park, Michigan</t>
+  </si>
+  <si>
+    <t>Tropical Rainforest, La Selva Biological Station, Costa Rica</t>
+  </si>
+  <si>
+    <t>Tropical Rainforest, El Yunque National Forest, Puerto Rico</t>
+  </si>
+  <si>
+    <t>Tropical Dry Forest, Guánica State Forest, Puerto Rico</t>
+  </si>
+  <si>
+    <t>Cove Hardwood Forest, Great Smoky Mountains, Tennessee</t>
+  </si>
+  <si>
+    <t>Beech-Magnolia Forest, Torreya State Park, Florida</t>
+  </si>
+  <si>
+    <t>Beech-Maple Forest, Warren Woods State Park, Michigan</t>
+  </si>
+  <si>
+    <t>Northern Hardwoods Forest, Manistee National Forest, Michigan</t>
+  </si>
+  <si>
+    <t>Broadleaf Evergreen Forest, San Gabriel Mountains, California</t>
+  </si>
+  <si>
+    <t>Mesic Chaparral, San Gabriel Mountains, California</t>
+  </si>
+  <si>
+    <t>Oak-Chestnut Forest, Great Smoky Mountains, Tennessee</t>
+  </si>
+  <si>
+    <t>Sweetgum-Loblolly Pine Bottomland, Congaree National Park, South Carolina</t>
+  </si>
+  <si>
+    <t>Bald-cypress-Tupelo Swamp, Congaree National Park, South Carolina</t>
+  </si>
+  <si>
+    <t>Longleaf Pine Woodlands, Thomas County, Georgia</t>
+  </si>
+  <si>
+    <t>Oak-Pine Barrens, Allegan State Game Area, Michigan</t>
+  </si>
+  <si>
+    <t>Ponderosa Pine Woodland, Grand Canyon National Park, Arizona</t>
+  </si>
+  <si>
+    <t>Pinyon-Juniper Woodland, Grand Canyon National Park, Arizona</t>
+  </si>
+  <si>
+    <t>Boreal Forest, Fairbanks, Alaska</t>
+  </si>
+  <si>
+    <t>Subalpine Forest, Front Range, Colorado</t>
+  </si>
+  <si>
+    <t>Jack Pine Barrens, Huron National Forest, Michigan</t>
+  </si>
+  <si>
+    <t>Heath Bald, Great Smoky Mountains, Tennessee</t>
+  </si>
+  <si>
+    <t>Joshua Tree Desert, Joshua Tree National Park, California</t>
+  </si>
+  <si>
+    <t>Coast Redwood Forest, Humboldt Redwoods State Park, California</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,7 +1569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1546,7 +1621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1740,36 +1815,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BE26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1:X26"/>
+      <selection pane="bottomRight" sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="67.21875" customWidth="1"/>
+    <col min="2" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="6" width="9" customWidth="1"/>
-    <col min="7" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="18" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="8.42578125" customWidth="1"/>
+    <col min="7" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="8.44140625" customWidth="1"/>
+    <col min="18" max="18" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="2" customFormat="1" ht="60.75" thickBot="1">
+    <row r="1" spans="1:57" s="2" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>104</v>
       </c>
@@ -1939,9 +2014,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="B2" s="23">
         <f>AA2</f>
@@ -2161,98 +2236,98 @@
         <v>95.74</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B3" s="24">
-        <f t="shared" ref="B3:B26" si="3">AA3</f>
+        <f t="shared" ref="B3:B23" si="3">AA3</f>
         <v>21.94</v>
       </c>
       <c r="C3" s="24">
-        <f t="shared" ref="C3:C26" si="4">AB3</f>
+        <f t="shared" ref="C3:C23" si="4">AB3</f>
         <v>40.67</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" ref="D3:D26" si="5">AD3</f>
+        <f t="shared" ref="D3:D23" si="5">AD3</f>
         <v>46.92</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E26" si="6">AE3</f>
+        <f t="shared" ref="E3:E23" si="6">AE3</f>
         <v>60.01</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F26" si="7">AF3</f>
+        <f t="shared" ref="F3:F23" si="7">AF3</f>
         <v>73.58</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" ref="G3:G26" si="8">AR3</f>
+        <f t="shared" ref="G3:G23" si="8">AR3</f>
         <v>63.39</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H26" si="9">AT3</f>
+        <f t="shared" ref="H3:H23" si="9">AT3</f>
         <v>80.03</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I26" si="10">AH3</f>
+        <f t="shared" ref="I3:I23" si="10">AH3</f>
         <v>90.16</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>85</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K26" si="11">IF(AI3=0,"",AI3)</f>
+        <f t="shared" ref="K3:K23" si="11">IF(AI3=0,"",AI3)</f>
         <v>12.57</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L26" si="12">IF(AJ3=0,"",AJ3)</f>
+        <f t="shared" ref="L3:L23" si="12">IF(AJ3=0,"",AJ3)</f>
         <v>4.82</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M26" si="13">IF(AK3=0,"",AK3)</f>
+        <f t="shared" ref="M3:M23" si="13">IF(AK3=0,"",AK3)</f>
         <v>9.9600000000000009</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N26" si="14">IF(AL3=0,"",AL3)</f>
+        <f t="shared" ref="N3:N23" si="14">IF(AL3=0,"",AL3)</f>
         <v>22.78</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O26" si="15">IF(AM3=0,"",AM3)</f>
+        <f t="shared" ref="O3:O23" si="15">IF(AM3=0,"",AM3)</f>
         <v>26.61</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P26" si="16">IF(AN3=0,"",AN3)</f>
+        <f t="shared" ref="P3:P23" si="16">IF(AN3=0,"",AN3)</f>
         <v>13.75</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q26" si="17">IF(AO3=0,"",AO3)</f>
+        <f t="shared" ref="Q3:Q23" si="17">IF(AO3=0,"",AO3)</f>
         <v>9.51</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>85</v>
       </c>
       <c r="S3" s="12">
-        <f t="shared" ref="S3:S26" si="18">IF(AP3=0,"",AP3)</f>
+        <f t="shared" ref="S3:S23" si="18">IF(AP3=0,"",AP3)</f>
         <v>82.61</v>
       </c>
       <c r="T3" s="12">
-        <f t="shared" ref="T3:T26" si="19">IF(BA3=0,"",BA3)</f>
+        <f t="shared" ref="T3:T23" si="19">IF(BA3=0,"",BA3)</f>
         <v>0.45</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U26" si="20">IF(BB3=0,"",BB3)</f>
+        <f t="shared" ref="U3:U23" si="20">IF(BB3=0,"",BB3)</f>
         <v>1.56</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V26" si="21">IF(BC3=0,"",BC3)</f>
+        <f t="shared" ref="V3:V23" si="21">IF(BC3=0,"",BC3)</f>
         <v>15.09</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W26" si="22">IF(BD3=0,"",BD3)</f>
+        <f t="shared" ref="W3:W23" si="22">IF(BD3=0,"",BD3)</f>
         <v>24.11</v>
       </c>
       <c r="X3" s="5">
-        <f t="shared" ref="X3:X26" si="23">IF(BE3=0,"",BE3)</f>
+        <f t="shared" ref="X3:X23" si="23">IF(BE3=0,"",BE3)</f>
         <v>41.4</v>
       </c>
       <c r="Z3" t="s">
@@ -2383,9 +2458,9 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="15.75" thickBot="1">
+    <row r="4" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="B4" s="25">
         <f t="shared" si="3"/>
@@ -2605,9 +2680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B5" s="23">
         <f t="shared" si="3"/>
@@ -2827,9 +2902,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B6" s="24">
         <f t="shared" si="3"/>
@@ -3049,9 +3124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="15.75" thickBot="1">
+    <row r="7" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="B7" s="25">
         <f t="shared" si="3"/>
@@ -3271,9 +3346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B8" s="23">
         <f t="shared" si="3"/>
@@ -3493,9 +3568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="B9" s="24">
         <f t="shared" si="3"/>
@@ -3715,9 +3790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B10" s="24">
         <f t="shared" si="3"/>
@@ -3937,9 +4012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B11" s="24">
         <f t="shared" si="3"/>
@@ -4159,730 +4234,730 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="15.75" thickBot="1">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B12" s="24">
+        <f>AA12</f>
+        <v>19.48</v>
+      </c>
+      <c r="C12" s="24">
+        <f>AB12</f>
+        <v>18.95</v>
+      </c>
+      <c r="D12" s="12">
+        <f>AD12</f>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <f>AE12</f>
+        <v>25.36</v>
+      </c>
+      <c r="F12" s="5">
+        <f>AF12</f>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="G12" s="20">
+        <f>AR12</f>
+        <v>30.49</v>
+      </c>
+      <c r="H12" s="1">
+        <f>AT12</f>
+        <v>41.82</v>
+      </c>
+      <c r="I12" s="5">
+        <f>AH12</f>
+        <v>50.5</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12:Q12" si="24">IF(AI12=0,"",AI12)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="24"/>
+        <v>1.35</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="24"/>
+        <v>29.66</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="24"/>
+        <v>58.53</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="24"/>
+        <v>9.15</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" s="12">
+        <f>IF(AP12=0,"",AP12)</f>
+        <v>97.533000000000001</v>
+      </c>
+      <c r="T12" s="12">
+        <f>IF(BA12=0,"",BA12)</f>
+        <v>8.49</v>
+      </c>
+      <c r="U12" s="1">
+        <f>IF(BB12=0,"",BB12)</f>
+        <v>57.32</v>
+      </c>
+      <c r="V12" s="1">
+        <f>IF(BC12=0,"",BC12)</f>
+        <v>28.05</v>
+      </c>
+      <c r="W12" s="1">
+        <f>IF(BD12=0,"",BD12)</f>
+        <v>3.68</v>
+      </c>
+      <c r="X12" s="5" t="str">
+        <f>IF(BE12=0,"",BE12)</f>
+        <v/>
+      </c>
+      <c r="Z12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>19.48</v>
+      </c>
+      <c r="AB12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>18.95</v>
+      </c>
+      <c r="AC12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>13.3</v>
+      </c>
+      <c r="AD12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AE12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>25.36</v>
+      </c>
+      <c r="AF12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="AG12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>43.88</v>
+      </c>
+      <c r="AH12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>50.5</v>
+      </c>
+      <c r="AI12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AJ12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>1.35</v>
+      </c>
+      <c r="AK12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+        <v>29.66</v>
+      </c>
+      <c r="AL12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>58.53</v>
+      </c>
+      <c r="AM12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>9.15</v>
+      </c>
+      <c r="AN12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AO12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>97.533000000000001</v>
+      </c>
+      <c r="AQ12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>26.38</v>
+      </c>
+      <c r="AR12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>30.49</v>
+      </c>
+      <c r="AS12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>36.840000000000003</v>
+      </c>
+      <c r="AT12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>41.82</v>
+      </c>
+      <c r="AU12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+        <v>8.33</v>
+      </c>
+      <c r="AV12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>13.76</v>
+      </c>
+      <c r="AW12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>18.07</v>
+      </c>
+      <c r="AX12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>23.03</v>
+      </c>
+      <c r="AY12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>34.130000000000003</v>
+      </c>
+      <c r="AZ12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>50.5</v>
+      </c>
+      <c r="BA12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>8.49</v>
+      </c>
+      <c r="BB12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>57.32</v>
+      </c>
+      <c r="BC12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>28.05</v>
+      </c>
+      <c r="BD12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>3.68</v>
+      </c>
+      <c r="BE12">
+        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="24">
         <f t="shared" si="3"/>
         <v>16.2</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C13" s="24">
         <f t="shared" si="4"/>
         <v>18.61</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <f t="shared" si="5"/>
         <v>18.03</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="6"/>
         <v>22.87</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="5">
         <f t="shared" si="7"/>
         <v>26.21</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G13" s="20">
         <f t="shared" si="8"/>
         <v>23.3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="9"/>
         <v>29.32</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="5">
         <f t="shared" si="10"/>
         <v>38.450000000000003</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="11"/>
         <v>0.19</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="13"/>
         <v>31.47</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="14"/>
         <v>66.3</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O13" s="1">
         <f t="shared" si="15"/>
         <v>1.04</v>
       </c>
-      <c r="P12" s="1" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="Q12" s="5" t="str">
+      <c r="Q13" s="5" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S13" s="12">
         <f t="shared" si="18"/>
         <v>98.81</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T13" s="12">
         <f t="shared" si="19"/>
         <v>13.12</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="20"/>
         <v>78.86</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V13" s="1">
         <f t="shared" si="21"/>
         <v>6.83</v>
       </c>
-      <c r="W12" s="1" t="str">
+      <c r="W13" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="X12" s="5" t="str">
+      <c r="X13" s="5" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z13" t="s">
         <v>66</v>
       </c>
-      <c r="AA12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AA13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>16.2</v>
       </c>
-      <c r="AB12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AB13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>18.61</v>
       </c>
-      <c r="AC12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AC13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>12.49</v>
       </c>
-      <c r="AD12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AD13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>18.03</v>
       </c>
-      <c r="AE12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AE13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>22.87</v>
       </c>
-      <c r="AF12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AF13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>26.21</v>
       </c>
-      <c r="AG12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AG13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>30.74</v>
       </c>
-      <c r="AH12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AH13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>38.450000000000003</v>
       </c>
-      <c r="AI12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AI13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>0.19</v>
       </c>
-      <c r="AJ12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AJ13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AK12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AK13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>31.47</v>
       </c>
-      <c r="AL12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+      <c r="AL13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>66.3</v>
       </c>
-      <c r="AM12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+      <c r="AM13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>1.04</v>
       </c>
-      <c r="AN12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AN13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>98.81</v>
       </c>
-      <c r="AQ12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+      <c r="AQ13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>21.78</v>
       </c>
-      <c r="AR12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+      <c r="AR13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>23.3</v>
       </c>
-      <c r="AS12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+      <c r="AS13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
         <v>25.96</v>
       </c>
-      <c r="AT12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AT13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
         <v>29.32</v>
       </c>
-      <c r="AU12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AU13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>8.11</v>
       </c>
-      <c r="AV12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AV13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>13.34</v>
       </c>
-      <c r="AW12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AW13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>17.98</v>
       </c>
-      <c r="AX12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AX13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="AY12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="AY13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>26.82</v>
       </c>
-      <c r="AZ12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="AZ13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>38.450000000000003</v>
       </c>
-      <c r="BA12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BA13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>13.12</v>
       </c>
-      <c r="BB12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BB13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>78.86</v>
       </c>
-      <c r="BC12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BC13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>6.83</v>
       </c>
-      <c r="BD12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <f>VLOOKUP($Z12,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
+      <c r="BD13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
-      <c r="A13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="23">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="23">
         <f t="shared" si="3"/>
         <v>20.65</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C14" s="23">
         <f t="shared" si="4"/>
         <v>23.72</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f t="shared" si="5"/>
         <v>24.64</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="6"/>
         <v>30.97</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <f t="shared" si="7"/>
         <v>35.21</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G14" s="19">
         <f t="shared" si="8"/>
         <v>34.01</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="9"/>
         <v>43.03</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <f t="shared" si="10"/>
         <v>50.48</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K14" s="3">
         <f t="shared" si="11"/>
         <v>0.92</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="12"/>
         <v>1.87</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="13"/>
         <v>29.56</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="14"/>
         <v>52.01</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O14" s="3">
         <f t="shared" si="15"/>
         <v>15.17</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P14" s="3">
         <f t="shared" si="16"/>
         <v>0.46</v>
       </c>
-      <c r="Q13" s="4" t="str">
+      <c r="Q14" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="R14" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S14" s="11">
         <f t="shared" si="18"/>
         <v>97.212999999999994</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T14" s="11">
         <f t="shared" si="19"/>
         <v>5.45</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U14" s="3">
         <f t="shared" si="20"/>
         <v>38.840000000000003</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V14" s="3">
         <f t="shared" si="21"/>
         <v>48.72</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W14" s="3">
         <f t="shared" si="22"/>
         <v>4.2</v>
       </c>
-      <c r="X13" s="4" t="str">
+      <c r="X14" s="4" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z14" t="s">
         <v>38</v>
       </c>
-      <c r="AA13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AA14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>20.65</v>
       </c>
-      <c r="AB13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AB14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>23.72</v>
       </c>
-      <c r="AC13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AC14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>14.68</v>
       </c>
-      <c r="AD13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AD14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>24.64</v>
       </c>
-      <c r="AE13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AE14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>30.97</v>
       </c>
-      <c r="AF13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AF14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>35.21</v>
       </c>
-      <c r="AG13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AG14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>44.28</v>
       </c>
-      <c r="AH13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AH14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>50.48</v>
       </c>
-      <c r="AI13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AI14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>0.92</v>
       </c>
-      <c r="AJ13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AJ14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>1.87</v>
       </c>
-      <c r="AK13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AK14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>29.56</v>
       </c>
-      <c r="AL13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+      <c r="AL14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
         <v>52.01</v>
       </c>
-      <c r="AM13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+      <c r="AM14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
         <v>15.17</v>
       </c>
-      <c r="AN13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+      <c r="AN14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
         <v>0.46</v>
       </c>
-      <c r="AO13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AO14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>97.212999999999994</v>
       </c>
-      <c r="AQ13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+      <c r="AQ14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>29.82</v>
       </c>
-      <c r="AR13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+      <c r="AR14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>34.01</v>
       </c>
-      <c r="AS13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+      <c r="AS14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
         <v>39.04</v>
       </c>
-      <c r="AT13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AT14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
         <v>43.03</v>
       </c>
-      <c r="AU13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AU14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>7.53</v>
       </c>
-      <c r="AV13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AV14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>13.4</v>
       </c>
-      <c r="AW13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AW14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>20.67</v>
       </c>
-      <c r="AX13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AX14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>27.34</v>
       </c>
-      <c r="AY13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="AY14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>35.17</v>
       </c>
-      <c r="AZ13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="AZ14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>50.48</v>
       </c>
-      <c r="BA13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BA14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>5.45</v>
       </c>
-      <c r="BB13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BB14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>38.840000000000003</v>
       </c>
-      <c r="BC13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+      <c r="BC14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
         <v>48.72</v>
       </c>
-      <c r="BD13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+      <c r="BD14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
         <v>4.2</v>
       </c>
-      <c r="BE13">
-        <f>VLOOKUP($Z13,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
+      <c r="BE14">
+        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="15.75" thickBot="1">
-      <c r="A14" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="25">
+    <row r="15" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="24">
         <f t="shared" si="3"/>
         <v>21.79</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C15" s="24">
         <f t="shared" si="4"/>
         <v>29.8</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="12">
         <f t="shared" si="5"/>
         <v>31.78</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="1">
         <f t="shared" si="6"/>
         <v>33.57</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="5">
         <f t="shared" si="7"/>
         <v>35.39</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G15" s="20">
         <f t="shared" si="8"/>
         <v>33.96</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="1">
         <f t="shared" si="9"/>
         <v>36.979999999999997</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="5">
         <f t="shared" si="10"/>
         <v>41.49</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K15" s="1">
         <f t="shared" si="11"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L15" s="1">
         <f t="shared" si="12"/>
         <v>0.13</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M15" s="1">
         <f t="shared" si="13"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N15" s="1">
         <f t="shared" si="14"/>
         <v>50.52</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O15" s="1">
         <f t="shared" si="15"/>
         <v>46.94</v>
-      </c>
-      <c r="P14" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q14" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="S14" s="13">
-        <f t="shared" si="18"/>
-        <v>99.725999999999999</v>
-      </c>
-      <c r="T14" s="13" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="U14" s="6">
-        <f t="shared" si="20"/>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="V14" s="6">
-        <f t="shared" si="21"/>
-        <v>90.69</v>
-      </c>
-      <c r="W14" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X14" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Z14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>21.79</v>
-      </c>
-      <c r="AB14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>29.8</v>
-      </c>
-      <c r="AC14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>29.21</v>
-      </c>
-      <c r="AD14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>31.78</v>
-      </c>
-      <c r="AE14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>33.57</v>
-      </c>
-      <c r="AF14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>35.39</v>
-      </c>
-      <c r="AG14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>38.83</v>
-      </c>
-      <c r="AH14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>41.49</v>
-      </c>
-      <c r="AI14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AJ14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>0.13</v>
-      </c>
-      <c r="AK14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AL14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>50.52</v>
-      </c>
-      <c r="AM14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>46.94</v>
-      </c>
-      <c r="AN14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>99.725999999999999</v>
-      </c>
-      <c r="AQ14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="AR14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>33.96</v>
-      </c>
-      <c r="AS14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>35.5</v>
-      </c>
-      <c r="AT14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>36.979999999999997</v>
-      </c>
-      <c r="AU14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>19.13</v>
-      </c>
-      <c r="AV14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>26.72</v>
-      </c>
-      <c r="AW14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>29.57</v>
-      </c>
-      <c r="AX14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>32.21</v>
-      </c>
-      <c r="AY14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>36.020000000000003</v>
-      </c>
-      <c r="AZ14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>41.49</v>
-      </c>
-      <c r="BA14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="BC14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>90.69</v>
-      </c>
-      <c r="BD14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <f>VLOOKUP($Z14,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57">
-      <c r="A15" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="24">
-        <f t="shared" si="3"/>
-        <v>14.09</v>
-      </c>
-      <c r="C15" s="24">
-        <f t="shared" si="4"/>
-        <v>13.67</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="5"/>
-        <v>14.27</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="6"/>
-        <v>17.649999999999999</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="8"/>
-        <v>17.420000000000002</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="9"/>
-        <v>21.58</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="10"/>
-        <v>27.5</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="11"/>
-        <v>31.03</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="12"/>
-        <v>6.69</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="13"/>
-        <v>41.55</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="14"/>
-        <v>20.73</v>
-      </c>
-      <c r="O15" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="16"/>
@@ -4893,23 +4968,23 @@
         <v/>
       </c>
       <c r="R15" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S15" s="12">
         <f t="shared" si="18"/>
-        <v>62.280999999999999</v>
-      </c>
-      <c r="T15" s="12">
+        <v>99.725999999999999</v>
+      </c>
+      <c r="T15" s="12" t="str">
         <f t="shared" si="19"/>
-        <v>18.690000000000001</v>
+        <v/>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="20"/>
-        <v>43.59</v>
-      </c>
-      <c r="V15" s="1" t="str">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="V15" s="1">
         <f t="shared" si="21"/>
-        <v/>
+        <v>90.69</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="22"/>
@@ -4920,59 +4995,59 @@
         <v/>
       </c>
       <c r="Z15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AA15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>14.09</v>
+        <v>21.79</v>
       </c>
       <c r="AB15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>13.67</v>
+        <v>29.8</v>
       </c>
       <c r="AC15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>10.91</v>
+        <v>29.21</v>
       </c>
       <c r="AD15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>14.27</v>
+        <v>31.78</v>
       </c>
       <c r="AE15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>17.649999999999999</v>
+        <v>33.57</v>
       </c>
       <c r="AF15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>20</v>
+        <v>35.39</v>
       </c>
       <c r="AG15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>22.84</v>
+        <v>38.83</v>
       </c>
       <c r="AH15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>27.5</v>
+        <v>41.49</v>
       </c>
       <c r="AI15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>31.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AJ15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>6.69</v>
+        <v>0.13</v>
       </c>
       <c r="AK15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>41.55</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="AL15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>20.73</v>
+        <v>50.52</v>
       </c>
       <c r="AM15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
+        <v>46.94</v>
       </c>
       <c r="AN15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
@@ -4984,59 +5059,59 @@
       </c>
       <c r="AP15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>62.280999999999999</v>
+        <v>99.725999999999999</v>
       </c>
       <c r="AQ15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>15.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AR15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>17.420000000000002</v>
+        <v>33.96</v>
       </c>
       <c r="AS15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>19.760000000000002</v>
+        <v>35.5</v>
       </c>
       <c r="AT15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>21.58</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="AU15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>6.47</v>
+        <v>19.13</v>
       </c>
       <c r="AV15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>9.83</v>
+        <v>26.72</v>
       </c>
       <c r="AW15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>12.81</v>
+        <v>29.57</v>
       </c>
       <c r="AX15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>16.16</v>
+        <v>32.21</v>
       </c>
       <c r="AY15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>19.63</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="AZ15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>27.5</v>
+        <v>41.49</v>
       </c>
       <c r="BA15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>18.690000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>43.59</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="BC15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>0</v>
+        <v>90.69</v>
       </c>
       <c r="BD15">
         <f>VLOOKUP($Z15,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
@@ -5047,98 +5122,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="15.75" thickBot="1">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="23">
+        <f>AA16</f>
+        <v>14.58</v>
+      </c>
+      <c r="C16" s="23">
+        <f>AB16</f>
+        <v>23.59</v>
+      </c>
+      <c r="D16" s="11">
+        <f>AD16</f>
+        <v>25.53</v>
+      </c>
+      <c r="E16" s="3">
+        <f>AE16</f>
+        <v>27.77</v>
+      </c>
+      <c r="F16" s="4">
+        <f>AF16</f>
+        <v>30.15</v>
+      </c>
+      <c r="G16" s="19">
+        <f>AR16</f>
+        <v>27.84</v>
+      </c>
+      <c r="H16" s="3">
+        <f>AT16</f>
+        <v>31.76</v>
+      </c>
+      <c r="I16" s="4">
+        <f>AH16</f>
+        <v>36.28</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="25">
-        <f t="shared" si="3"/>
-        <v>14.58</v>
-      </c>
-      <c r="C16" s="25">
-        <f t="shared" si="4"/>
-        <v>23.59</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="5"/>
-        <v>25.53</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="6"/>
-        <v>27.77</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="7"/>
-        <v>30.15</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="8"/>
-        <v>27.84</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="9"/>
-        <v>31.76</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="10"/>
-        <v>36.28</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:Q16" si="25">IF(AI16=0,"",AI16)</f>
+        <v>39.619999999999997</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="25"/>
+        <v>4.49</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="25"/>
+        <v>11.1</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="25"/>
+        <v>42.44</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="25"/>
+        <v>2.35</v>
+      </c>
+      <c r="P16" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="R16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="6">
-        <f t="shared" si="11"/>
-        <v>39.619999999999997</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="12"/>
-        <v>4.49</v>
-      </c>
-      <c r="M16" s="6">
-        <f t="shared" si="13"/>
-        <v>11.1</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="14"/>
-        <v>42.44</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="15"/>
-        <v>2.35</v>
-      </c>
-      <c r="P16" s="6" t="str">
-        <f t="shared" si="16"/>
+      <c r="S16" s="11">
+        <f>IF(AP16=0,"",AP16)</f>
+        <v>55.887999999999998</v>
+      </c>
+      <c r="T16" s="11">
+        <f>IF(BA16=0,"",BA16)</f>
+        <v>1.35</v>
+      </c>
+      <c r="U16" s="3">
+        <f>IF(BB16=0,"",BB16)</f>
+        <v>39.56</v>
+      </c>
+      <c r="V16" s="3">
+        <f>IF(BC16=0,"",BC16)</f>
+        <v>14.98</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <f>IF(BD16=0,"",BD16)</f>
         <v/>
       </c>
-      <c r="Q16" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="S16" s="13">
-        <f t="shared" si="18"/>
-        <v>55.887999999999998</v>
-      </c>
-      <c r="T16" s="13">
-        <f t="shared" si="19"/>
-        <v>1.35</v>
-      </c>
-      <c r="U16" s="6">
-        <f t="shared" si="20"/>
-        <v>39.56</v>
-      </c>
-      <c r="V16" s="6">
-        <f t="shared" si="21"/>
-        <v>14.98</v>
-      </c>
-      <c r="W16" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X16" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="X16" s="4" t="str">
+        <f>IF(BE16=0,"",BE16)</f>
         <v/>
       </c>
       <c r="Z16" t="s">
@@ -5269,64 +5344,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="B17" s="24">
         <f t="shared" si="3"/>
-        <v>10.7</v>
+        <v>14.09</v>
       </c>
       <c r="C17" s="24">
         <f t="shared" si="4"/>
-        <v>13.3</v>
+        <v>13.67</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="5"/>
-        <v>16.55</v>
+        <v>14.27</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="6"/>
-        <v>18.399999999999999</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="7"/>
-        <v>20.77</v>
+        <v>20</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="8"/>
-        <v>20.83</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="9"/>
-        <v>26.37</v>
+        <v>21.58</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="10"/>
-        <v>36.36</v>
+        <v>27.5</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="11"/>
-        <v>19.920000000000002</v>
+        <v>31.03</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="12"/>
-        <v>8.32</v>
+        <v>6.69</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="13"/>
-        <v>52.54</v>
+        <v>41.55</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="14"/>
-        <v>19.12</v>
-      </c>
-      <c r="O17" s="1">
+        <v>20.73</v>
+      </c>
+      <c r="O17" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="16"/>
@@ -5337,23 +5412,23 @@
         <v/>
       </c>
       <c r="R17" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="S17" s="12">
         <f t="shared" si="18"/>
-        <v>71.751999999999995</v>
+        <v>62.280999999999999</v>
       </c>
       <c r="T17" s="12">
         <f t="shared" si="19"/>
-        <v>8.65</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="20"/>
-        <v>62.06</v>
-      </c>
-      <c r="V17" s="1">
+        <v>43.59</v>
+      </c>
+      <c r="V17" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>1.04</v>
+        <v/>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="22"/>
@@ -5364,59 +5439,59 @@
         <v/>
       </c>
       <c r="Z17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AA17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>10.7</v>
+        <v>14.09</v>
       </c>
       <c r="AB17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>13.3</v>
+        <v>13.67</v>
       </c>
       <c r="AC17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>13.49</v>
+        <v>10.91</v>
       </c>
       <c r="AD17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>16.55</v>
+        <v>14.27</v>
       </c>
       <c r="AE17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>18.399999999999999</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="AF17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>20.77</v>
+        <v>20</v>
       </c>
       <c r="AG17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>26.27</v>
+        <v>22.84</v>
       </c>
       <c r="AH17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>36.36</v>
+        <v>27.5</v>
       </c>
       <c r="AI17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>19.920000000000002</v>
+        <v>31.03</v>
       </c>
       <c r="AJ17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>8.32</v>
+        <v>6.69</v>
       </c>
       <c r="AK17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>52.54</v>
+        <v>41.55</v>
       </c>
       <c r="AL17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>19.12</v>
+        <v>20.73</v>
       </c>
       <c r="AM17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AN17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
@@ -5428,59 +5503,59 @@
       </c>
       <c r="AP17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>71.751999999999995</v>
+        <v>62.280999999999999</v>
       </c>
       <c r="AQ17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>18.77</v>
+        <v>15.8</v>
       </c>
       <c r="AR17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>20.83</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="AS17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>23.67</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="AT17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>26.37</v>
+        <v>21.58</v>
       </c>
       <c r="AU17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>6.41</v>
+        <v>6.47</v>
       </c>
       <c r="AV17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>9.86</v>
+        <v>9.83</v>
       </c>
       <c r="AW17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>12.56</v>
+        <v>12.81</v>
       </c>
       <c r="AX17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>15.28</v>
+        <v>16.16</v>
       </c>
       <c r="AY17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>19.420000000000002</v>
+        <v>19.63</v>
       </c>
       <c r="AZ17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>36.36</v>
+        <v>27.5</v>
       </c>
       <c r="BA17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>8.65</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="BB17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>62.06</v>
+        <v>43.59</v>
       </c>
       <c r="BC17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="BD17">
         <f>VLOOKUP($Z17,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
@@ -5491,948 +5566,948 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="15.75" thickBot="1">
-      <c r="A18" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="24">
+        <f>AA18</f>
+        <v>9.9</v>
+      </c>
+      <c r="C18" s="24">
+        <f>AB18</f>
+        <v>8.09</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" ref="D18:F19" si="26">AD18</f>
+        <v>9.42</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="26"/>
+        <v>11.13</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="26"/>
+        <v>14.6</v>
+      </c>
+      <c r="G18" s="20">
+        <f>AR18</f>
+        <v>15.34</v>
+      </c>
+      <c r="H18" s="1">
+        <f>AT18</f>
+        <v>20.9</v>
+      </c>
+      <c r="I18" s="5">
+        <f>AH18</f>
+        <v>25.89</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" ref="K18:Q19" si="27">IF(AI18=0,"",AI18)</f>
+        <v>19.850000000000001</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="27"/>
+        <v>14.6</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="27"/>
+        <v>61.04</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="27"/>
+        <v>4.51</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Q18" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="S18" s="12">
+        <f>IF(AP18=0,"",AP18)</f>
+        <v>65.549000000000007</v>
+      </c>
+      <c r="T18" s="12">
+        <f t="shared" ref="T18:X19" si="28">IF(BA18=0,"",BA18)</f>
+        <v>50.74</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="28"/>
+        <v>14.81</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X18" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="Z18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>9.9</v>
+      </c>
+      <c r="AB18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>8.09</v>
+      </c>
+      <c r="AC18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>7.9</v>
+      </c>
+      <c r="AD18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>9.42</v>
+      </c>
+      <c r="AE18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>11.13</v>
+      </c>
+      <c r="AF18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>14.6</v>
+      </c>
+      <c r="AG18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>20.07</v>
+      </c>
+      <c r="AH18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>25.89</v>
+      </c>
+      <c r="AI18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>19.850000000000001</v>
+      </c>
+      <c r="AJ18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>14.6</v>
+      </c>
+      <c r="AK18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+        <v>61.04</v>
+      </c>
+      <c r="AL18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>4.51</v>
+      </c>
+      <c r="AM18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>65.549000000000007</v>
+      </c>
+      <c r="AQ18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>13.08</v>
+      </c>
+      <c r="AR18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>15.34</v>
+      </c>
+      <c r="AS18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>18.309999999999999</v>
+      </c>
+      <c r="AT18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>20.9</v>
+      </c>
+      <c r="AU18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+        <v>5.51</v>
+      </c>
+      <c r="AV18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>6.71</v>
+      </c>
+      <c r="AW18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>8.1</v>
+      </c>
+      <c r="AX18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>10.44</v>
+      </c>
+      <c r="AY18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>16.059999999999999</v>
+      </c>
+      <c r="AZ18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>25.89</v>
+      </c>
+      <c r="BA18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>50.74</v>
+      </c>
+      <c r="BB18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>14.81</v>
+      </c>
+      <c r="BC18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="24">
+        <f>AA19</f>
+        <v>6.96</v>
+      </c>
+      <c r="C19" s="24">
+        <f>AB19</f>
+        <v>6.3</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="26"/>
+        <v>6.88</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="26"/>
+        <v>7.8</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="26"/>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="G19" s="20">
+        <f>AR19</f>
+        <v>8.51</v>
+      </c>
+      <c r="H19" s="1">
+        <f>AT19</f>
+        <v>11.68</v>
+      </c>
+      <c r="I19" s="5">
+        <f>AH19</f>
+        <v>17.16</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="27"/>
+        <v>38.270000000000003</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="27"/>
+        <v>33.04</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="27"/>
+        <v>28.68</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="27"/>
+        <v>0.02</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Q19" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="S19" s="12">
+        <f>IF(AP19=0,"",AP19)</f>
+        <v>28.698</v>
+      </c>
+      <c r="T19" s="12">
+        <f t="shared" si="28"/>
+        <v>28.59</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="28"/>
+        <v>0.1</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X19" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="Z19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>6.96</v>
+      </c>
+      <c r="AB19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>6.3</v>
+      </c>
+      <c r="AC19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>5.94</v>
+      </c>
+      <c r="AD19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>6.88</v>
+      </c>
+      <c r="AE19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>7.8</v>
+      </c>
+      <c r="AF19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="AG19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>11.13</v>
+      </c>
+      <c r="AH19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>17.16</v>
+      </c>
+      <c r="AI19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>38.270000000000003</v>
+      </c>
+      <c r="AJ19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>33.04</v>
+      </c>
+      <c r="AK19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+        <v>28.68</v>
+      </c>
+      <c r="AL19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>0.02</v>
+      </c>
+      <c r="AM19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>28.698</v>
+      </c>
+      <c r="AQ19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>7.53</v>
+      </c>
+      <c r="AR19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>8.51</v>
+      </c>
+      <c r="AS19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="AT19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>11.68</v>
+      </c>
+      <c r="AU19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+        <v>5.15</v>
+      </c>
+      <c r="AV19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>5.6</v>
+      </c>
+      <c r="AW19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>6.21</v>
+      </c>
+      <c r="AX19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>7.14</v>
+      </c>
+      <c r="AY19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>9.07</v>
+      </c>
+      <c r="AZ19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>17.16</v>
+      </c>
+      <c r="BA19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>28.59</v>
+      </c>
+      <c r="BB19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="BC19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="23">
+        <f t="shared" si="3"/>
+        <v>10.7</v>
+      </c>
+      <c r="C20" s="23">
+        <f t="shared" si="4"/>
+        <v>13.3</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="5"/>
+        <v>16.55</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="6"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>20.77</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="8"/>
+        <v>20.83</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="9"/>
+        <v>26.37</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="10"/>
+        <v>36.36</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="11"/>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="12"/>
+        <v>8.32</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="13"/>
+        <v>52.54</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="14"/>
+        <v>19.12</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="18"/>
+        <v>71.751999999999995</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="19"/>
+        <v>8.65</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="20"/>
+        <v>62.06</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="21"/>
+        <v>1.04</v>
+      </c>
+      <c r="W20" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="X20" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Z20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="AB20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+        <v>13.3</v>
+      </c>
+      <c r="AC20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+        <v>13.49</v>
+      </c>
+      <c r="AD20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+        <v>16.55</v>
+      </c>
+      <c r="AE20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AF20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+        <v>20.77</v>
+      </c>
+      <c r="AG20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+        <v>26.27</v>
+      </c>
+      <c r="AH20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+        <v>36.36</v>
+      </c>
+      <c r="AI20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AJ20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+        <v>8.32</v>
+      </c>
+      <c r="AK20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+        <v>52.54</v>
+      </c>
+      <c r="AL20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>19.12</v>
+      </c>
+      <c r="AM20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AN20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+        <v>71.751999999999995</v>
+      </c>
+      <c r="AQ20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+        <v>18.77</v>
+      </c>
+      <c r="AR20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+        <v>20.83</v>
+      </c>
+      <c r="AS20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+        <v>23.67</v>
+      </c>
+      <c r="AT20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+        <v>26.37</v>
+      </c>
+      <c r="AU20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+        <v>6.41</v>
+      </c>
+      <c r="AV20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+        <v>9.86</v>
+      </c>
+      <c r="AW20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+        <v>12.56</v>
+      </c>
+      <c r="AX20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+        <v>15.28</v>
+      </c>
+      <c r="AY20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+        <v>19.420000000000002</v>
+      </c>
+      <c r="AZ20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+        <v>36.36</v>
+      </c>
+      <c r="BA20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+        <v>8.65</v>
+      </c>
+      <c r="BB20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+        <v>62.06</v>
+      </c>
+      <c r="BC20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>1.04</v>
+      </c>
+      <c r="BD20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="25">
         <f t="shared" si="3"/>
         <v>6.86</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C21" s="25">
         <f t="shared" si="4"/>
         <v>6.41</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D21" s="13">
         <f t="shared" si="5"/>
         <v>7.47</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E21" s="6">
         <f t="shared" si="6"/>
         <v>8.48</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F21" s="7">
         <f t="shared" si="7"/>
         <v>9.86</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G21" s="21">
         <f t="shared" si="8"/>
         <v>9.6199999999999992</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H21" s="6">
         <f t="shared" si="9"/>
         <v>15.84</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I21" s="7">
         <f t="shared" si="10"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K21" s="6">
         <f t="shared" si="11"/>
         <v>26.81</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L21" s="6">
         <f t="shared" si="12"/>
         <v>33.119999999999997</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M21" s="6">
         <f t="shared" si="13"/>
         <v>40.07</v>
       </c>
-      <c r="N18" s="6" t="str">
+      <c r="N21" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="O18" s="6" t="str">
+      <c r="O21" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="P18" s="6" t="str">
+      <c r="P21" s="6" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="Q18" s="7" t="str">
+      <c r="Q21" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S21" s="13">
         <f t="shared" si="18"/>
         <v>40.07</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T21" s="13">
         <f t="shared" si="19"/>
         <v>39.99</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U21" s="6">
         <f t="shared" si="20"/>
         <v>0.08</v>
       </c>
-      <c r="V18" s="6" t="str">
+      <c r="V21" s="6" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="W18" s="6" t="str">
+      <c r="W21" s="6" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="X18" s="7" t="str">
+      <c r="X21" s="7" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z21" t="s">
         <v>35</v>
       </c>
-      <c r="AA18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
+      <c r="AA21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
         <v>6.86</v>
       </c>
-      <c r="AB18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
+      <c r="AB21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
         <v>6.41</v>
       </c>
-      <c r="AC18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
+      <c r="AC21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
         <v>6.38</v>
       </c>
-      <c r="AD18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
+      <c r="AD21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
         <v>7.47</v>
       </c>
-      <c r="AE18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
+      <c r="AE21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
         <v>8.48</v>
       </c>
-      <c r="AF18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
+      <c r="AF21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
         <v>9.86</v>
       </c>
-      <c r="AG18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
+      <c r="AG21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
         <v>12.77</v>
       </c>
-      <c r="AH18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
+      <c r="AH21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="AI18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
+      <c r="AI21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
         <v>26.81</v>
       </c>
-      <c r="AJ18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
+      <c r="AJ21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
         <v>33.119999999999997</v>
       </c>
-      <c r="AK18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
+      <c r="AK21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
         <v>40.07</v>
       </c>
-      <c r="AL18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
+      <c r="AL21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
         <v>40.07</v>
       </c>
-      <c r="AQ18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
+      <c r="AQ21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
         <v>8.4700000000000006</v>
       </c>
-      <c r="AR18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
+      <c r="AR21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
         <v>9.6199999999999992</v>
       </c>
-      <c r="AS18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
+      <c r="AS21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
         <v>11.85</v>
       </c>
-      <c r="AT18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
+      <c r="AT21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
         <v>15.84</v>
       </c>
-      <c r="AU18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
+      <c r="AU21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
         <v>5.24</v>
       </c>
-      <c r="AV18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
+      <c r="AV21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
         <v>5.76</v>
       </c>
-      <c r="AW18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
+      <c r="AW21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
         <v>6.4</v>
       </c>
-      <c r="AX18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
+      <c r="AX21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
         <v>7.38</v>
       </c>
-      <c r="AY18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
+      <c r="AY21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
         <v>9.68</v>
       </c>
-      <c r="AZ18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
+      <c r="AZ21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="BA18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
+      <c r="BA21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
         <v>39.99</v>
       </c>
-      <c r="BB18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
+      <c r="BB21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
         <v>0.08</v>
       </c>
-      <c r="BC18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <f>VLOOKUP($Z18,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
+      <c r="BC21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:57">
-      <c r="A19" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="24">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="24">
         <f t="shared" si="3"/>
         <v>7.74</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C22" s="24">
         <f t="shared" si="4"/>
         <v>6.62</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D22" s="12">
         <f t="shared" si="5"/>
         <v>7.6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E22" s="1">
         <f t="shared" si="6"/>
         <v>8.19</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="7"/>
         <v>8.7799999999999994</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G22" s="20">
         <f t="shared" si="8"/>
         <v>7.62</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="9"/>
         <v>8.8699999999999992</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="10"/>
         <v>14.54</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="11"/>
         <v>43.86</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L22" s="1">
         <f t="shared" si="12"/>
         <v>50.75</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M22" s="1">
         <f t="shared" si="13"/>
         <v>5.39</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="N22" s="1" t="str">
         <f t="shared" si="14"/>
         <v/>
-      </c>
-      <c r="O19" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P19" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q19" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="S19" s="12">
-        <f t="shared" si="18"/>
-        <v>5.39</v>
-      </c>
-      <c r="T19" s="12">
-        <f t="shared" si="19"/>
-        <v>5.39</v>
-      </c>
-      <c r="U19" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="V19" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="W19" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X19" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Z19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>7.74</v>
-      </c>
-      <c r="AB19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>6.62</v>
-      </c>
-      <c r="AC19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>6.52</v>
-      </c>
-      <c r="AD19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>7.6</v>
-      </c>
-      <c r="AE19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>8.19</v>
-      </c>
-      <c r="AF19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AG19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>9.77</v>
-      </c>
-      <c r="AH19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>14.54</v>
-      </c>
-      <c r="AI19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>43.86</v>
-      </c>
-      <c r="AJ19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>50.75</v>
-      </c>
-      <c r="AK19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>5.39</v>
-      </c>
-      <c r="AL19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>5.39</v>
-      </c>
-      <c r="AQ19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>7.38</v>
-      </c>
-      <c r="AR19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>7.62</v>
-      </c>
-      <c r="AS19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="AT19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="AU19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>5.24</v>
-      </c>
-      <c r="AV19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>5.87</v>
-      </c>
-      <c r="AW19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>6.54</v>
-      </c>
-      <c r="AX19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>7.36</v>
-      </c>
-      <c r="AY19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>8.5</v>
-      </c>
-      <c r="AZ19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>14.54</v>
-      </c>
-      <c r="BA19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>5.39</v>
-      </c>
-      <c r="BB19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <f>VLOOKUP($Z19,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57" ht="15.75" thickBot="1">
-      <c r="A20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="25">
-        <f t="shared" si="3"/>
-        <v>7.4</v>
-      </c>
-      <c r="C20" s="25">
-        <f t="shared" si="4"/>
-        <v>5.8</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" si="5"/>
-        <v>6.45</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="6"/>
-        <v>7.35</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="7"/>
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="8"/>
-        <v>7.82</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="9"/>
-        <v>19.89</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="10"/>
-        <v>12.89</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="11"/>
-        <v>27.71</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="12"/>
-        <v>58.94</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="13"/>
-        <v>13.36</v>
-      </c>
-      <c r="N20" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="O20" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P20" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q20" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S20" s="13">
-        <f t="shared" si="18"/>
-        <v>13.36</v>
-      </c>
-      <c r="T20" s="13">
-        <f t="shared" si="19"/>
-        <v>13.36</v>
-      </c>
-      <c r="U20" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="V20" s="6" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="W20" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X20" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Z20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>7.4</v>
-      </c>
-      <c r="AB20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>5.8</v>
-      </c>
-      <c r="AC20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>5.7</v>
-      </c>
-      <c r="AD20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>6.45</v>
-      </c>
-      <c r="AE20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>7.35</v>
-      </c>
-      <c r="AF20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="AG20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>11.44</v>
-      </c>
-      <c r="AH20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>12.89</v>
-      </c>
-      <c r="AI20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>27.71</v>
-      </c>
-      <c r="AJ20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>58.94</v>
-      </c>
-      <c r="AK20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>13.36</v>
-      </c>
-      <c r="AL20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>13.36</v>
-      </c>
-      <c r="AQ20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>7.02</v>
-      </c>
-      <c r="AR20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="AS20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>11.48</v>
-      </c>
-      <c r="AT20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>19.89</v>
-      </c>
-      <c r="AU20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>5.09</v>
-      </c>
-      <c r="AV20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>5.33</v>
-      </c>
-      <c r="AW20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>5.71</v>
-      </c>
-      <c r="AX20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>6.5</v>
-      </c>
-      <c r="AY20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="AZ20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>12.89</v>
-      </c>
-      <c r="BA20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>13.36</v>
-      </c>
-      <c r="BB20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <f>VLOOKUP($Z20,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57">
-      <c r="A21" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="27">
-        <f>AA21</f>
-        <v>5.05</v>
-      </c>
-      <c r="C21" s="27">
-        <f>AB21</f>
-        <v>6.17</v>
-      </c>
-      <c r="D21" s="28">
-        <f>AD21</f>
-        <v>6.51</v>
-      </c>
-      <c r="E21" s="29">
-        <f>AE21</f>
-        <v>7.59</v>
-      </c>
-      <c r="F21" s="30">
-        <f>AF21</f>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G21" s="31">
-        <f>AR21</f>
-        <v>6.92</v>
-      </c>
-      <c r="H21" s="29">
-        <f>AT21</f>
-        <v>8.61</v>
-      </c>
-      <c r="I21" s="30">
-        <f>AH21</f>
-        <v>17.02</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" s="29">
-        <f>IF(AI21=0,"",AI21)</f>
-        <v>79.790000000000006</v>
-      </c>
-      <c r="L21" s="29">
-        <f>IF(AJ21=0,"",AJ21)</f>
-        <v>17.96</v>
-      </c>
-      <c r="M21" s="29">
-        <f>IF(AK21=0,"",AK21)</f>
-        <v>2.25</v>
-      </c>
-      <c r="N21" s="29" t="str">
-        <f>IF(AL21=0,"",AL21)</f>
-        <v/>
-      </c>
-      <c r="O21" s="29" t="str">
-        <f>IF(AM21=0,"",AM21)</f>
-        <v/>
-      </c>
-      <c r="P21" s="29" t="str">
-        <f>IF(AN21=0,"",AN21)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="30" t="str">
-        <f>IF(AO21=0,"",AO21)</f>
-        <v/>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="S21" s="28">
-        <f>IF(AP21=0,"",AP21)</f>
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="T21" s="28">
-        <f>IF(BA21=0,"",BA21)</f>
-        <v>2.23</v>
-      </c>
-      <c r="U21" s="29">
-        <f>IF(BB21=0,"",BB21)</f>
-        <v>0.02</v>
-      </c>
-      <c r="V21" s="29" t="str">
-        <f>IF(BC21=0,"",BC21)</f>
-        <v/>
-      </c>
-      <c r="W21" s="29" t="str">
-        <f>IF(BD21=0,"",BD21)</f>
-        <v/>
-      </c>
-      <c r="X21" s="30" t="str">
-        <f>IF(BE21=0,"",BE21)</f>
-        <v/>
-      </c>
-      <c r="Z21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>5.05</v>
-      </c>
-      <c r="AB21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>6.17</v>
-      </c>
-      <c r="AC21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>5.56</v>
-      </c>
-      <c r="AD21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>6.51</v>
-      </c>
-      <c r="AE21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>7.59</v>
-      </c>
-      <c r="AF21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="AG21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>11.98</v>
-      </c>
-      <c r="AH21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>17.02</v>
-      </c>
-      <c r="AI21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>79.790000000000006</v>
-      </c>
-      <c r="AJ21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>17.96</v>
-      </c>
-      <c r="AK21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>2.25</v>
-      </c>
-      <c r="AL21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="AQ21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>6.72</v>
-      </c>
-      <c r="AR21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>6.92</v>
-      </c>
-      <c r="AS21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>7.6</v>
-      </c>
-      <c r="AT21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>8.61</v>
-      </c>
-      <c r="AU21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>5.09</v>
-      </c>
-      <c r="AV21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>5.46</v>
-      </c>
-      <c r="AW21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>6.01</v>
-      </c>
-      <c r="AX21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>6.93</v>
-      </c>
-      <c r="AY21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>9.16</v>
-      </c>
-      <c r="AZ21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>17.02</v>
-      </c>
-      <c r="BA21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>2.23</v>
-      </c>
-      <c r="BB21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>0.02</v>
-      </c>
-      <c r="BC21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <f>VLOOKUP($Z21,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57">
-      <c r="A22" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="24">
-        <f t="shared" si="3"/>
-        <v>6.96</v>
-      </c>
-      <c r="C22" s="24">
-        <f t="shared" si="4"/>
-        <v>6.3</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="5"/>
-        <v>6.88</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="6"/>
-        <v>7.8</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="7"/>
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="G22" s="20">
-        <f t="shared" si="8"/>
-        <v>8.51</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="9"/>
-        <v>11.68</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="10"/>
-        <v>17.16</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="11"/>
-        <v>38.270000000000003</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="12"/>
-        <v>33.04</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="13"/>
-        <v>28.68</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="14"/>
-        <v>0.02</v>
       </c>
       <c r="O22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6447,19 +6522,19 @@
         <v/>
       </c>
       <c r="R22" s="16" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="S22" s="12">
         <f t="shared" si="18"/>
-        <v>28.698</v>
+        <v>5.39</v>
       </c>
       <c r="T22" s="12">
         <f t="shared" si="19"/>
-        <v>28.59</v>
-      </c>
-      <c r="U22" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="U22" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="V22" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6474,55 +6549,55 @@
         <v/>
       </c>
       <c r="Z22" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="AA22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>6.96</v>
+        <v>7.74</v>
       </c>
       <c r="AB22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>6.3</v>
+        <v>6.62</v>
       </c>
       <c r="AC22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>5.94</v>
+        <v>6.52</v>
       </c>
       <c r="AD22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>6.88</v>
+        <v>7.6</v>
       </c>
       <c r="AE22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>7.8</v>
+        <v>8.19</v>
       </c>
       <c r="AF22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>8.9700000000000006</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="AG22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>11.13</v>
+        <v>9.77</v>
       </c>
       <c r="AH22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>17.16</v>
+        <v>14.54</v>
       </c>
       <c r="AI22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>38.270000000000003</v>
+        <v>43.86</v>
       </c>
       <c r="AJ22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>33.04</v>
+        <v>50.75</v>
       </c>
       <c r="AK22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>28.68</v>
+        <v>5.39</v>
       </c>
       <c r="AL22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AM22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
@@ -6538,55 +6613,55 @@
       </c>
       <c r="AP22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>28.698</v>
+        <v>5.39</v>
       </c>
       <c r="AQ22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>7.53</v>
+        <v>7.38</v>
       </c>
       <c r="AR22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>8.51</v>
+        <v>7.62</v>
       </c>
       <c r="AS22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>10.039999999999999</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AT22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>11.68</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="AU22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>5.15</v>
+        <v>5.24</v>
       </c>
       <c r="AV22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>5.6</v>
+        <v>5.87</v>
       </c>
       <c r="AW22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>6.21</v>
+        <v>6.54</v>
       </c>
       <c r="AX22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>7.14</v>
+        <v>7.36</v>
       </c>
       <c r="AY22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>9.07</v>
+        <v>8.5</v>
       </c>
       <c r="AZ22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>17.16</v>
+        <v>14.54</v>
       </c>
       <c r="BA22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>28.59</v>
+        <v>5.39</v>
       </c>
       <c r="BB22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BC22">
         <f>VLOOKUP($Z22,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
@@ -6601,150 +6676,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="15.75" thickBot="1">
-      <c r="A23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="24">
         <f t="shared" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="C23" s="25">
+        <v>7.31</v>
+      </c>
+      <c r="C23" s="24">
         <f t="shared" si="4"/>
-        <v>8.09</v>
-      </c>
-      <c r="D23" s="13">
+        <v>6.69</v>
+      </c>
+      <c r="D23" s="12">
         <f t="shared" si="5"/>
-        <v>9.42</v>
-      </c>
-      <c r="E23" s="6">
+        <v>7.81</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="6"/>
-        <v>11.13</v>
-      </c>
-      <c r="F23" s="7">
+        <v>10.17</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="7"/>
-        <v>14.6</v>
-      </c>
-      <c r="G23" s="21">
+        <v>16.5</v>
+      </c>
+      <c r="G23" s="20">
         <f t="shared" si="8"/>
-        <v>15.34</v>
-      </c>
-      <c r="H23" s="6">
+        <v>12.74</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="9"/>
-        <v>20.9</v>
-      </c>
-      <c r="I23" s="7">
+        <v>36.01</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="10"/>
-        <v>25.89</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="6">
+        <v>20.28</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="11"/>
-        <v>19.850000000000001</v>
-      </c>
-      <c r="L23" s="6">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="12"/>
-        <v>14.6</v>
-      </c>
-      <c r="M23" s="6">
+        <v>86.61</v>
+      </c>
+      <c r="M23" s="1">
         <f t="shared" si="13"/>
-        <v>61.04</v>
-      </c>
-      <c r="N23" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="N23" s="1">
         <f t="shared" si="14"/>
-        <v>4.51</v>
-      </c>
-      <c r="O23" s="6" t="str">
+        <v>0.74</v>
+      </c>
+      <c r="O23" s="1" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="P23" s="6" t="str">
+      <c r="P23" s="1" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="Q23" s="7" t="str">
+      <c r="Q23" s="5" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="R23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S23" s="13">
+      <c r="R23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23" s="12">
         <f t="shared" si="18"/>
-        <v>65.549000000000007</v>
-      </c>
-      <c r="T23" s="13">
+        <v>8.3350000000000009</v>
+      </c>
+      <c r="T23" s="12">
         <f t="shared" si="19"/>
-        <v>50.74</v>
-      </c>
-      <c r="U23" s="6">
+        <v>5.86</v>
+      </c>
+      <c r="U23" s="1">
         <f t="shared" si="20"/>
-        <v>14.81</v>
-      </c>
-      <c r="V23" s="6" t="str">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="V23" s="1" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="W23" s="6" t="str">
+      <c r="W23" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="X23" s="7" t="str">
+      <c r="X23" s="5" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Z23" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="AA23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>9.9</v>
+        <v>7.31</v>
       </c>
       <c r="AB23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>8.09</v>
+        <v>6.69</v>
       </c>
       <c r="AC23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>7.9</v>
+        <v>5.89</v>
       </c>
       <c r="AD23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>9.42</v>
+        <v>7.81</v>
       </c>
       <c r="AE23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>11.13</v>
+        <v>10.17</v>
       </c>
       <c r="AF23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>14.6</v>
+        <v>16.5</v>
       </c>
       <c r="AG23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>20.07</v>
+        <v>20.28</v>
       </c>
       <c r="AH23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>25.89</v>
+        <v>20.28</v>
       </c>
       <c r="AI23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>19.850000000000001</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="AJ23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>14.6</v>
+        <v>86.61</v>
       </c>
       <c r="AK23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>61.04</v>
+        <v>7.6</v>
       </c>
       <c r="AL23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>4.51</v>
+        <v>0.74</v>
       </c>
       <c r="AM23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
@@ -6760,55 +6835,55 @@
       </c>
       <c r="AP23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>65.549000000000007</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="AQ23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>13.08</v>
+        <v>9.4</v>
       </c>
       <c r="AR23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>15.34</v>
+        <v>12.74</v>
       </c>
       <c r="AS23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>18.309999999999999</v>
+        <v>24.44</v>
       </c>
       <c r="AT23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>20.9</v>
+        <v>36.01</v>
       </c>
       <c r="AU23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>5.51</v>
+        <v>5.13</v>
       </c>
       <c r="AV23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>6.71</v>
+        <v>5.74</v>
       </c>
       <c r="AW23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>8.1</v>
+        <v>7.08</v>
       </c>
       <c r="AX23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>10.44</v>
+        <v>10.67</v>
       </c>
       <c r="AY23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>16.059999999999999</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="AZ23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>25.89</v>
+        <v>20.28</v>
       </c>
       <c r="BA23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>50.74</v>
+        <v>5.86</v>
       </c>
       <c r="BB23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>14.81</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="BC23">
         <f>VLOOKUP($Z23,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
@@ -6823,150 +6898,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:57">
-      <c r="A24" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="27">
-        <f t="shared" si="3"/>
-        <v>7.23</v>
-      </c>
-      <c r="C24" s="27">
-        <f t="shared" si="4"/>
-        <v>5.75</v>
-      </c>
-      <c r="D24" s="28">
-        <f t="shared" si="5"/>
-        <v>6.21</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="6"/>
-        <v>6.79</v>
-      </c>
-      <c r="F24" s="30">
-        <f t="shared" si="7"/>
-        <v>8.17</v>
-      </c>
-      <c r="G24" s="31">
-        <f t="shared" si="8"/>
-        <v>6.64</v>
-      </c>
-      <c r="H24" s="29">
-        <f t="shared" si="9"/>
-        <v>10.4</v>
-      </c>
-      <c r="I24" s="30">
-        <f t="shared" si="10"/>
-        <v>11.86</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="11"/>
-        <v>43.16</v>
-      </c>
-      <c r="L24" s="29">
-        <f t="shared" si="12"/>
-        <v>49.88</v>
-      </c>
-      <c r="M24" s="29">
-        <f t="shared" si="13"/>
-        <v>6.96</v>
-      </c>
-      <c r="N24" s="29" t="str">
-        <f t="shared" si="14"/>
+    <row r="24" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="25">
+        <f>AA24</f>
+        <v>8.74</v>
+      </c>
+      <c r="C24" s="25">
+        <f>AB24</f>
+        <v>6.14</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" ref="D24:F25" si="29">AD24</f>
+        <v>6.5</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="29"/>
+        <v>7.81</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="29"/>
+        <v>10.5</v>
+      </c>
+      <c r="G24" s="21">
+        <f>AR24</f>
+        <v>7.43</v>
+      </c>
+      <c r="H24" s="6">
+        <f>AT24</f>
+        <v>12.77</v>
+      </c>
+      <c r="I24" s="7">
+        <f>AH24</f>
+        <v>20.2</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" ref="K24:Q24" si="30">IF(AI24=0,"",AI24)</f>
+        <v>41.21</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="30"/>
+        <v>50.04</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="30"/>
+        <v>8.52</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="30"/>
+        <v>0.23</v>
+      </c>
+      <c r="O24" s="6" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="O24" s="29" t="str">
-        <f t="shared" si="15"/>
+      <c r="P24" s="6" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="P24" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="Q24" s="7" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="Q24" s="30" t="str">
-        <f t="shared" si="17"/>
+      <c r="R24" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="S24" s="13">
+        <f>IF(AP24=0,"",AP24)</f>
+        <v>8.7520000000000007</v>
+      </c>
+      <c r="T24" s="13">
+        <f t="shared" ref="T24:X25" si="31">IF(BA24=0,"",BA24)</f>
+        <v>7.69</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="31"/>
+        <v>1.07</v>
+      </c>
+      <c r="V24" s="6" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="R24" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="S24" s="28">
-        <f t="shared" si="18"/>
-        <v>6.9619999999999997</v>
-      </c>
-      <c r="T24" s="28">
-        <f t="shared" si="19"/>
-        <v>6.96</v>
-      </c>
-      <c r="U24" s="29" t="str">
-        <f t="shared" si="20"/>
+      <c r="W24" s="6" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="V24" s="29" t="str">
-        <f t="shared" si="21"/>
+      <c r="X24" s="7" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="W24" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X24" s="30" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
       <c r="Z24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>7.23</v>
+        <v>8.74</v>
       </c>
       <c r="AB24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>5.75</v>
+        <v>6.14</v>
       </c>
       <c r="AC24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>5.54</v>
+        <v>5.67</v>
       </c>
       <c r="AD24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>6.21</v>
+        <v>6.5</v>
       </c>
       <c r="AE24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>6.79</v>
+        <v>7.81</v>
       </c>
       <c r="AF24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>8.17</v>
+        <v>10.5</v>
       </c>
       <c r="AG24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>9.51</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="AH24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>11.86</v>
+        <v>20.2</v>
       </c>
       <c r="AI24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>43.16</v>
+        <v>41.21</v>
       </c>
       <c r="AJ24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>49.88</v>
+        <v>50.04</v>
       </c>
       <c r="AK24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>6.96</v>
+        <v>8.52</v>
       </c>
       <c r="AL24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AM24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
@@ -6982,55 +7057,55 @@
       </c>
       <c r="AP24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>6.9619999999999997</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="AQ24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>6.28</v>
+        <v>7.08</v>
       </c>
       <c r="AR24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>6.64</v>
+        <v>7.43</v>
       </c>
       <c r="AS24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>8.11</v>
+        <v>9</v>
       </c>
       <c r="AT24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>10.4</v>
+        <v>12.77</v>
       </c>
       <c r="AU24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>5.09</v>
+        <v>5.12</v>
       </c>
       <c r="AV24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>5.34</v>
+        <v>5.49</v>
       </c>
       <c r="AW24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>5.68</v>
+        <v>6.12</v>
       </c>
       <c r="AX24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>6.31</v>
+        <v>7.73</v>
       </c>
       <c r="AY24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>7.79</v>
+        <v>13.17</v>
       </c>
       <c r="AZ24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>11.86</v>
+        <v>20.2</v>
       </c>
       <c r="BA24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>6.96</v>
+        <v>7.69</v>
       </c>
       <c r="BB24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="BC24">
         <f>VLOOKUP($Z24,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
@@ -7045,150 +7120,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:57">
-      <c r="A25" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="24">
-        <f t="shared" si="3"/>
-        <v>8.74</v>
-      </c>
-      <c r="C25" s="24">
-        <f t="shared" si="4"/>
-        <v>6.14</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="6"/>
-        <v>7.81</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="G25" s="20">
-        <f t="shared" si="8"/>
-        <v>7.43</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="9"/>
-        <v>12.77</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="10"/>
-        <v>20.2</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="11"/>
-        <v>41.21</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="12"/>
-        <v>50.04</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="13"/>
-        <v>8.52</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="14"/>
-        <v>0.23</v>
-      </c>
-      <c r="O25" s="1" t="str">
-        <f t="shared" si="15"/>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="27">
+        <f>AA25</f>
+        <v>5.05</v>
+      </c>
+      <c r="C25" s="27">
+        <f>AB25</f>
+        <v>6.17</v>
+      </c>
+      <c r="D25" s="28">
+        <f t="shared" si="29"/>
+        <v>6.51</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="29"/>
+        <v>7.59</v>
+      </c>
+      <c r="F25" s="30">
+        <f t="shared" si="29"/>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G25" s="31">
+        <f>AR25</f>
+        <v>6.92</v>
+      </c>
+      <c r="H25" s="29">
+        <f>AT25</f>
+        <v>8.61</v>
+      </c>
+      <c r="I25" s="30">
+        <f>AH25</f>
+        <v>17.02</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" ref="K25:Q25" si="32">IF(AI25=0,"",AI25)</f>
+        <v>79.790000000000006</v>
+      </c>
+      <c r="L25" s="29">
+        <f t="shared" si="32"/>
+        <v>17.96</v>
+      </c>
+      <c r="M25" s="29">
+        <f t="shared" si="32"/>
+        <v>2.25</v>
+      </c>
+      <c r="N25" s="29" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P25" s="1" t="str">
-        <f t="shared" si="16"/>
+      <c r="O25" s="29" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="Q25" s="5" t="str">
-        <f t="shared" si="17"/>
+      <c r="P25" s="29" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="R25" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="S25" s="12">
-        <f t="shared" si="18"/>
-        <v>8.7520000000000007</v>
-      </c>
-      <c r="T25" s="12">
-        <f t="shared" si="19"/>
-        <v>7.69</v>
-      </c>
-      <c r="U25" s="1">
-        <f t="shared" si="20"/>
-        <v>1.07</v>
-      </c>
-      <c r="V25" s="1" t="str">
-        <f t="shared" si="21"/>
+      <c r="Q25" s="30" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="W25" s="1" t="str">
-        <f t="shared" si="22"/>
+      <c r="R25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="S25" s="28">
+        <f>IF(AP25=0,"",AP25)</f>
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="T25" s="28">
+        <f t="shared" si="31"/>
+        <v>2.23</v>
+      </c>
+      <c r="U25" s="29">
+        <f t="shared" si="31"/>
+        <v>0.02</v>
+      </c>
+      <c r="V25" s="29" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="X25" s="5" t="str">
-        <f t="shared" si="23"/>
+      <c r="W25" s="29" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
+      <c r="X25" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
       <c r="Z25" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="AA25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>8.74</v>
+        <v>5.05</v>
       </c>
       <c r="AB25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>6.14</v>
+        <v>6.17</v>
       </c>
       <c r="AC25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>5.67</v>
+        <v>5.56</v>
       </c>
       <c r="AD25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>6.5</v>
+        <v>6.51</v>
       </c>
       <c r="AE25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>7.81</v>
+        <v>7.59</v>
       </c>
       <c r="AF25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>10.5</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="AG25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>17.489999999999998</v>
+        <v>11.98</v>
       </c>
       <c r="AH25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>20.2</v>
+        <v>17.02</v>
       </c>
       <c r="AI25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>41.21</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="AJ25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>50.04</v>
+        <v>17.96</v>
       </c>
       <c r="AK25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>8.52</v>
+        <v>2.25</v>
       </c>
       <c r="AL25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AM25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
@@ -7204,55 +7279,55 @@
       </c>
       <c r="AP25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>8.7520000000000007</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="AQ25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>7.08</v>
+        <v>6.72</v>
       </c>
       <c r="AR25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>7.43</v>
+        <v>6.92</v>
       </c>
       <c r="AS25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AT25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>12.77</v>
+        <v>8.61</v>
       </c>
       <c r="AU25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>5.12</v>
+        <v>5.09</v>
       </c>
       <c r="AV25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>5.49</v>
+        <v>5.46</v>
       </c>
       <c r="AW25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>6.12</v>
+        <v>6.01</v>
       </c>
       <c r="AX25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>7.73</v>
+        <v>6.93</v>
       </c>
       <c r="AY25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>13.17</v>
+        <v>9.16</v>
       </c>
       <c r="AZ25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>20.2</v>
+        <v>17.02</v>
       </c>
       <c r="BA25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>7.69</v>
+        <v>2.23</v>
       </c>
       <c r="BB25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>1.07</v>
+        <v>0.02</v>
       </c>
       <c r="BC25">
         <f>VLOOKUP($Z25,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
@@ -7267,605 +7342,883 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="15.75" thickBot="1">
-      <c r="A26" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="25">
-        <f t="shared" si="3"/>
-        <v>19.48</v>
-      </c>
-      <c r="C26" s="25">
-        <f t="shared" si="4"/>
-        <v>18.95</v>
-      </c>
-      <c r="D26" s="13">
-        <f t="shared" si="5"/>
-        <v>19.920000000000002</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="6"/>
-        <v>25.36</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="7"/>
-        <v>33.049999999999997</v>
-      </c>
-      <c r="G26" s="21">
-        <f t="shared" si="8"/>
-        <v>30.49</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="9"/>
-        <v>41.82</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="10"/>
-        <v>50.5</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="11"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="12"/>
-        <v>1.35</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="13"/>
-        <v>29.66</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="14"/>
-        <v>58.53</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="15"/>
-        <v>9.15</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q26" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="S26" s="13">
-        <f t="shared" si="18"/>
-        <v>97.533000000000001</v>
-      </c>
-      <c r="T26" s="13">
-        <f t="shared" si="19"/>
-        <v>8.49</v>
-      </c>
-      <c r="U26" s="6">
-        <f t="shared" si="20"/>
-        <v>57.32</v>
-      </c>
-      <c r="V26" s="6">
-        <f t="shared" si="21"/>
-        <v>28.05</v>
-      </c>
-      <c r="W26" s="6">
-        <f t="shared" si="22"/>
-        <v>3.68</v>
-      </c>
-      <c r="X26" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Z26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA26">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="Z26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>19.48</v>
-      </c>
-      <c r="AB26">
+        <v>width50</v>
+      </c>
+      <c r="AB26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>18.95</v>
-      </c>
-      <c r="AC26">
+        <v>canopy50</v>
+      </c>
+      <c r="AC26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>13.3</v>
-      </c>
-      <c r="AD26">
+        <v>crown05</v>
+      </c>
+      <c r="AD26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>19.920000000000002</v>
-      </c>
-      <c r="AE26">
+        <v>crown25</v>
+      </c>
+      <c r="AE26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>25.36</v>
-      </c>
-      <c r="AF26">
+        <v>crown50</v>
+      </c>
+      <c r="AF26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>33.049999999999997</v>
-      </c>
-      <c r="AG26">
+        <v>crown75</v>
+      </c>
+      <c r="AG26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>43.88</v>
-      </c>
-      <c r="AH26">
+        <v>crown95</v>
+      </c>
+      <c r="AH26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>50.5</v>
-      </c>
-      <c r="AI26">
+        <v>crownmax</v>
+      </c>
+      <c r="AI26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AJ26">
+        <v>strat00</v>
+      </c>
+      <c r="AJ26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>1.35</v>
-      </c>
-      <c r="AK26">
+        <v>strat02</v>
+      </c>
+      <c r="AK26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>29.66</v>
-      </c>
-      <c r="AL26">
+        <v>strat05</v>
+      </c>
+      <c r="AL26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>58.53</v>
-      </c>
-      <c r="AM26">
+        <v>strat15</v>
+      </c>
+      <c r="AM26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>9.15</v>
-      </c>
-      <c r="AN26">
+        <v>strat30</v>
+      </c>
+      <c r="AN26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AO26">
+        <v>strat45</v>
+      </c>
+      <c r="AO26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AP26">
+        <v>strat60</v>
+      </c>
+      <c r="AP26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>97.533000000000001</v>
-      </c>
-      <c r="AQ26">
+        <v>strattree</v>
+      </c>
+      <c r="AQ26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>26.38</v>
-      </c>
-      <c r="AR26">
+        <v>c10m</v>
+      </c>
+      <c r="AR26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>30.49</v>
-      </c>
-      <c r="AS26">
+        <v>c20m</v>
+      </c>
+      <c r="AS26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>36.840000000000003</v>
-      </c>
-      <c r="AT26">
+        <v>c50m</v>
+      </c>
+      <c r="AT26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>41.82</v>
-      </c>
-      <c r="AU26">
+        <v>c100m</v>
+      </c>
+      <c r="AU26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>8.33</v>
-      </c>
-      <c r="AV26">
+        <v>ht05</v>
+      </c>
+      <c r="AV26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>13.76</v>
-      </c>
-      <c r="AW26">
+        <v>ht25</v>
+      </c>
+      <c r="AW26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>18.07</v>
-      </c>
-      <c r="AX26">
+        <v>ht50</v>
+      </c>
+      <c r="AX26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>23.03</v>
-      </c>
-      <c r="AY26">
+        <v>ht75</v>
+      </c>
+      <c r="AY26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>34.130000000000003</v>
-      </c>
-      <c r="AZ26">
+        <v>ht95</v>
+      </c>
+      <c r="AZ26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>50.5</v>
-      </c>
-      <c r="BA26">
+        <v>htmax</v>
+      </c>
+      <c r="BA26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>8.49</v>
-      </c>
-      <c r="BB26">
+        <v>tree05</v>
+      </c>
+      <c r="BB26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>57.32</v>
-      </c>
-      <c r="BC26">
+        <v>tree15</v>
+      </c>
+      <c r="BC26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>28.05</v>
-      </c>
-      <c r="BD26">
+        <v>tree30</v>
+      </c>
+      <c r="BD26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
-        <v>3.68</v>
-      </c>
-      <c r="BE26">
+        <v>tree45</v>
+      </c>
+      <c r="BE26" t="str">
         <f>VLOOKUP($Z26,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:57">
-      <c r="Z27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AA$1,FALSE)</f>
-        <v>width50</v>
-      </c>
-      <c r="AB27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AB$1,FALSE)</f>
-        <v>canopy50</v>
-      </c>
-      <c r="AC27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AC$1,FALSE)</f>
-        <v>crown05</v>
-      </c>
-      <c r="AD27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AD$1,FALSE)</f>
-        <v>crown25</v>
-      </c>
-      <c r="AE27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AE$1,FALSE)</f>
-        <v>crown50</v>
-      </c>
-      <c r="AF27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AF$1,FALSE)</f>
-        <v>crown75</v>
-      </c>
-      <c r="AG27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AG$1,FALSE)</f>
-        <v>crown95</v>
-      </c>
-      <c r="AH27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AH$1,FALSE)</f>
-        <v>crownmax</v>
-      </c>
-      <c r="AI27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AI$1,FALSE)</f>
-        <v>strat00</v>
-      </c>
-      <c r="AJ27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AJ$1,FALSE)</f>
-        <v>strat02</v>
-      </c>
-      <c r="AK27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AK$1,FALSE)</f>
-        <v>strat05</v>
-      </c>
-      <c r="AL27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AL$1,FALSE)</f>
-        <v>strat15</v>
-      </c>
-      <c r="AM27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AM$1,FALSE)</f>
-        <v>strat30</v>
-      </c>
-      <c r="AN27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AN$1,FALSE)</f>
-        <v>strat45</v>
-      </c>
-      <c r="AO27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AO$1,FALSE)</f>
-        <v>strat60</v>
-      </c>
-      <c r="AP27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AP$1,FALSE)</f>
-        <v>strattree</v>
-      </c>
-      <c r="AQ27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AQ$1,FALSE)</f>
-        <v>c10m</v>
-      </c>
-      <c r="AR27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AR$1,FALSE)</f>
-        <v>c20m</v>
-      </c>
-      <c r="AS27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AS$1,FALSE)</f>
-        <v>c50m</v>
-      </c>
-      <c r="AT27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AT$1,FALSE)</f>
-        <v>c100m</v>
-      </c>
-      <c r="AU27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AU$1,FALSE)</f>
-        <v>ht05</v>
-      </c>
-      <c r="AV27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AV$1,FALSE)</f>
-        <v>ht25</v>
-      </c>
-      <c r="AW27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AW$1,FALSE)</f>
-        <v>ht50</v>
-      </c>
-      <c r="AX27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AX$1,FALSE)</f>
-        <v>ht75</v>
-      </c>
-      <c r="AY27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AY$1,FALSE)</f>
-        <v>ht95</v>
-      </c>
-      <c r="AZ27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!AZ$1,FALSE)</f>
-        <v>htmax</v>
-      </c>
-      <c r="BA27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!BA$1,FALSE)</f>
-        <v>tree05</v>
-      </c>
-      <c r="BB27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!BB$1,FALSE)</f>
-        <v>tree15</v>
-      </c>
-      <c r="BC27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!BC$1,FALSE)</f>
-        <v>tree30</v>
-      </c>
-      <c r="BD27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!BD$1,FALSE)</f>
-        <v>tree45</v>
-      </c>
-      <c r="BE27" t="str">
-        <f>VLOOKUP($Z27,Sheet1!$A:$AF,combsum!BE$1,FALSE)</f>
         <v>tree60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="K1:Q1 K21:P1048576 S21:S1048576">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="B17:I17">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:I10 B13:I13">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:I11">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:I11">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I12">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:I12">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I12">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:I16">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="T12:X12">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I14 B2:I9 B17:I21">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="K12:Q12 S12:X12">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10 B12:B21">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I10 C12:I21">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="K24:P1048576 K19:P19 K1:Q1 S24:S1048576 S19">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:I10 B12:I12">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:I11">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I11">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I21">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:X21">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="B2:I9 B21:I25">
+    <cfRule type="colorScale" priority="175">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:Q21 S2:X21">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="B24:I25 B19:I19">
+    <cfRule type="colorScale" priority="262">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="59">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B25 B19">
+    <cfRule type="colorScale" priority="264">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:I25 C19:I19">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:I25 C19:I19">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24:X25 T19:X19">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:Q25 K19:Q19 S24:X25 S19:X19">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:I26">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="B2:B10 B13 B17 B21:B25">
+    <cfRule type="colorScale" priority="291">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I10 C13:I13 C17:I17 C21:I25">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B26">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="B2:B11 B13 B17 B21:B25">
+    <cfRule type="colorScale" priority="301">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I26">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="C2:I11 C13:I13 C17:I17 C21:I25">
+    <cfRule type="colorScale" priority="306">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B26">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="307">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I26">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21:X26">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="T5:X11 T13:X13 T17:X17 T21:X25">
+    <cfRule type="colorScale" priority="316">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:Q26 S21:X26">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K2:Q11 K13:Q13 S2:X11 S13:X13 S17:X17 K17:Q17 K21:Q25 S21:X25">
+    <cfRule type="colorScale" priority="321">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="322">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:I15">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I15">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I15">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:X15">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:Q15 S14:X15">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B15 B17 B21:B25 B19">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:I16">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:I16">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:I16">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:X16">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:Q16 S16:X16">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:I18">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:I18">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:I18">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18:X18">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:Q18 S18:X18">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:I20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:I20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:I20">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:X20">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:Q20 S20:X20">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:Q25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:X25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -7875,19 +8228,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:AF43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7985,7 +8338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -8083,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -8181,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -8279,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8377,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -8475,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -8573,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -8671,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -8769,7 +9122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -8867,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -8965,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -9063,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -9161,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -9259,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -9357,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -9455,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -9553,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -9651,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -9749,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -9847,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -9945,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -10043,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -10141,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -10239,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -10337,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -10435,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -10533,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -10631,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -10729,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -10827,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -10925,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -11023,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -11121,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -11219,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -11317,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -11415,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -11513,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -11611,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -11709,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -11807,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -11905,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -12003,7 +12356,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -12101,7 +12454,7 @@
         <v>95.74</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -12199,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -12297,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -12395,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -12493,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -12591,7 +12944,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -12689,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -12787,7 +13140,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -12885,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -12983,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -13081,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -13179,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -13277,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -13375,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -13473,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -13572,7 +13925,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AF53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF53">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
